--- a/tests/tests8/N 0.1.xlsx
+++ b/tests/tests8/N 0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
   <si>
     <t>П0_ист</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>[0, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1]</t>
   </si>
 </sst>
 </file>
@@ -528,37 +522,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.69660767672961</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>128.7340859470355</v>
+        <v>98.78643070691845</v>
       </c>
       <c r="D2">
-        <v>11.02763376071644</v>
+        <v>11.58227239646903</v>
       </c>
       <c r="E2">
         <v>359.8235947654032</v>
       </c>
       <c r="F2">
-        <v>30.26454091850167</v>
+        <v>10.09127973660584</v>
       </c>
       <c r="G2">
-        <v>125.649620348662</v>
+        <v>98.5493027220099</v>
       </c>
       <c r="H2">
-        <v>11.27340096927966</v>
+        <v>11.83430081737701</v>
       </c>
       <c r="Q2">
-        <v>0.01188141955999994</v>
+        <v>0.0114549949416778</v>
       </c>
       <c r="R2">
-        <v>0.2088033572676147</v>
+        <v>0.1196424034746082</v>
       </c>
       <c r="S2" t="s">
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.0003576000000293789</v>
+        <v>0.0002860999999967362</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -566,37 +560,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23.76599021161583</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>129.6584088195885</v>
+        <v>75.06396084646332</v>
       </c>
       <c r="D3">
-        <v>5.001143748173449</v>
+        <v>11.6438939213059</v>
       </c>
       <c r="E3">
         <v>359.8375654636337</v>
       </c>
       <c r="F3">
-        <v>23.89675053677402</v>
+        <v>10.08791992486293</v>
       </c>
       <c r="G3">
-        <v>122.9836814004303</v>
+        <v>74.99417709126084</v>
       </c>
       <c r="H3">
-        <v>4.921143995361552</v>
+        <v>11.89678564345488</v>
       </c>
       <c r="Q3">
-        <v>0.01140288514737927</v>
+        <v>0.01088333377517081</v>
       </c>
       <c r="R3">
-        <v>0.2566375373832828</v>
+        <v>0.1113036172409455</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3">
-        <v>0.0002627999999731401</v>
+        <v>0.0002877000000012231</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -604,37 +598,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>24.61977059639017</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4.666721729020439</v>
+        <v>78.47908238556067</v>
       </c>
       <c r="D4">
-        <v>10.49662477878709</v>
+        <v>3.311114781934696</v>
       </c>
       <c r="E4">
         <v>0.04167578474055147</v>
       </c>
       <c r="F4">
-        <v>24.77359539365005</v>
+        <v>9.992698843776319</v>
       </c>
       <c r="G4">
-        <v>4.618642469403579</v>
+        <v>78.95033584032657</v>
       </c>
       <c r="H4">
-        <v>9.802500028844758</v>
+        <v>3.271636438004601</v>
       </c>
       <c r="Q4">
-        <v>0.009992789048876904</v>
+        <v>0.009940671328543798</v>
       </c>
       <c r="R4">
-        <v>0.1873552328268166</v>
+        <v>0.0532245833231031</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T4">
-        <v>0.0002836999999544787</v>
+        <v>0.0002874999999988859</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -642,37 +636,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>29.7859056158559</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>127.4666080712589</v>
+        <v>99.1436224634236</v>
       </c>
       <c r="D5">
-        <v>7.909047389129443</v>
+        <v>11.49777387141726</v>
       </c>
       <c r="E5">
         <v>359.8211371526569</v>
       </c>
       <c r="F5">
-        <v>30.02979564344071</v>
+        <v>10.14400161317941</v>
       </c>
       <c r="G5">
-        <v>122.6439940814994</v>
+        <v>99.06070722687011</v>
       </c>
       <c r="H5">
-        <v>7.922091080254981</v>
+        <v>11.80660879858752</v>
       </c>
       <c r="Q5">
-        <v>0.01290000869033786</v>
+        <v>0.01235317490395779</v>
       </c>
       <c r="R5">
-        <v>0.1830509264267136</v>
+        <v>0.1379398881124099</v>
       </c>
       <c r="S5" t="s">
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.0002883999999880871</v>
+        <v>0.0002724999999941247</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -680,37 +674,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>48.51634275561545</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>98.50180485163001</v>
+        <v>174.0653710224618</v>
       </c>
       <c r="D6">
-        <v>14.72684359964884</v>
+        <v>9.566786990108668</v>
       </c>
       <c r="E6">
         <v>359.9949438292857</v>
       </c>
       <c r="F6">
-        <v>46.84298893528825</v>
+        <v>9.986889467820962</v>
       </c>
       <c r="G6">
-        <v>98.93642295489381</v>
+        <v>174.072762966395</v>
       </c>
       <c r="H6">
-        <v>14.09540562133691</v>
+        <v>9.550053496437441</v>
       </c>
       <c r="Q6">
-        <v>0.00941875561310916</v>
+        <v>0.009223987401920968</v>
       </c>
       <c r="R6">
-        <v>0.1768053619455513</v>
+        <v>0.008006739174795618</v>
       </c>
       <c r="S6" t="s">
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.000515899999982139</v>
+        <v>0.0002833000000066477</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -718,37 +712,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>14.98969269903828</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>156.7318151119277</v>
+        <v>39.9587707961531</v>
       </c>
       <c r="D7">
-        <v>7.067191553394264</v>
+        <v>13.44878767412852</v>
       </c>
       <c r="E7">
         <v>359.9558772513115</v>
       </c>
       <c r="F7">
-        <v>15.03247147997989</v>
+        <v>9.937311285214996</v>
       </c>
       <c r="G7">
-        <v>156.3373137901019</v>
+        <v>39.83246360548278</v>
       </c>
       <c r="H7">
-        <v>7.080653487469298</v>
+        <v>13.43940602547789</v>
       </c>
       <c r="Q7">
-        <v>0.01013819607327813</v>
+        <v>0.01015024460229206</v>
       </c>
       <c r="R7">
-        <v>0.03041180948617725</v>
+        <v>0.02638044412711667</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.000697299999956158</v>
+        <v>0.000290100000000848</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -756,37 +750,37 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>45.17870681462007</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>59.7563649542119</v>
+        <v>160.7148272584803</v>
       </c>
       <c r="D8">
-        <v>13.21229123057832</v>
+        <v>6.983757663614126</v>
       </c>
       <c r="E8">
         <v>0.03117836734874744</v>
       </c>
       <c r="F8">
-        <v>43.43125238509636</v>
+        <v>9.887168328449025</v>
       </c>
       <c r="G8">
-        <v>60.68434130261098</v>
+        <v>160.9567104959479</v>
       </c>
       <c r="H8">
-        <v>12.31999989823587</v>
+        <v>6.865784828261718</v>
       </c>
       <c r="Q8">
-        <v>0.009600438976020562</v>
+        <v>0.009404265077556323</v>
       </c>
       <c r="R8">
-        <v>0.2642958863724306</v>
+        <v>0.07487809720251792</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8">
-        <v>0.0002817999999820131</v>
+        <v>0.0005356000000062977</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -794,37 +788,37 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>8.433873021828074</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>140.3853826032206</v>
+        <v>13.73549208731229</v>
       </c>
       <c r="D9">
-        <v>9.384092314408935</v>
+        <v>12.35902550688138</v>
       </c>
       <c r="E9">
         <v>359.83094742962</v>
       </c>
       <c r="F9">
-        <v>8.673354866397865</v>
+        <v>9.789447935733046</v>
       </c>
       <c r="G9">
-        <v>140.1089599240754</v>
+        <v>13.61122139299192</v>
       </c>
       <c r="H9">
-        <v>9.787548688028135</v>
+        <v>12.70502146593216</v>
       </c>
       <c r="Q9">
-        <v>0.01268671636983528</v>
+        <v>0.01137078093960971</v>
       </c>
       <c r="R9">
-        <v>0.2039832319383015</v>
+        <v>0.1504504401591249</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.0002554000000145606</v>
+        <v>0.0002949000000000979</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -832,37 +826,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>44.30432312563173</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>174.3373193077678</v>
+        <v>157.2172925025269</v>
       </c>
       <c r="D10">
-        <v>13.6919454021392</v>
+        <v>14.62248795385118</v>
       </c>
       <c r="E10">
         <v>359.990879528338</v>
       </c>
       <c r="F10">
-        <v>43.87690372075082</v>
+        <v>9.987595150319111</v>
       </c>
       <c r="G10">
-        <v>174.4707038718595</v>
+        <v>157.2169109251027</v>
       </c>
       <c r="H10">
-        <v>13.63567466795964</v>
+        <v>14.60125032717486</v>
       </c>
       <c r="Q10">
-        <v>0.01110798827188451</v>
+        <v>0.01102833839900337</v>
       </c>
       <c r="R10">
-        <v>0.03196807494814544</v>
+        <v>0.007988119504641284</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.0002766000000065105</v>
+        <v>0.0002754000000066981</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -870,37 +864,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>5.466836924856498</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>90.33742658677298</v>
+        <v>1.867347699425992</v>
       </c>
       <c r="D11">
-        <v>9.957732931341461</v>
+        <v>9.022495105784865</v>
       </c>
       <c r="E11">
         <v>359.9998891445288</v>
       </c>
       <c r="F11">
-        <v>5.452538434890737</v>
+        <v>10.02333459640624</v>
       </c>
       <c r="G11">
-        <v>90.31796839563117</v>
+        <v>1.851842467809703</v>
       </c>
       <c r="H11">
-        <v>9.916251673026016</v>
+        <v>8.963829113027826</v>
       </c>
       <c r="Q11">
-        <v>0.009890801483990248</v>
+        <v>0.009836572311304635</v>
       </c>
       <c r="R11">
-        <v>0.01528766151377789</v>
+        <v>0.02055992330008847</v>
       </c>
       <c r="S11" t="s">
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.0002486000000203603</v>
+        <v>0.0002798000000012735</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -908,37 +902,37 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>39.70942894700357</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.73535088469227</v>
+        <v>138.8377157880143</v>
       </c>
       <c r="D12">
-        <v>11.33648234926275</v>
+        <v>3.249023392312818</v>
       </c>
       <c r="E12">
         <v>359.866841349587</v>
       </c>
       <c r="F12">
-        <v>36.51751331827084</v>
+        <v>10.01055484433122</v>
       </c>
       <c r="G12">
-        <v>3.226350290211911</v>
+        <v>137.1318014098198</v>
       </c>
       <c r="H12">
-        <v>14.71256967039458</v>
+        <v>3.259400407295101</v>
       </c>
       <c r="Q12">
-        <v>0.01149586320504588</v>
+        <v>0.01119565504997406</v>
       </c>
       <c r="R12">
-        <v>0.9245026314786561</v>
+        <v>0.08568138136250934</v>
       </c>
       <c r="S12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T12">
-        <v>0.0002743000000009488</v>
+        <v>0.0002785000000073978</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -946,37 +940,37 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13.11213599945461</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3.505543467772425</v>
+        <v>32.44854399781845</v>
       </c>
       <c r="D13">
-        <v>9.632185264983447</v>
+        <v>3.233702897851495</v>
       </c>
       <c r="E13">
         <v>359.8250545258695</v>
       </c>
       <c r="F13">
-        <v>12.63835859406644</v>
+        <v>9.907452998360101</v>
       </c>
       <c r="G13">
-        <v>3.670699466419684</v>
+        <v>31.48240109142458</v>
       </c>
       <c r="H13">
-        <v>10.41228861059876</v>
+        <v>3.4868254405973</v>
       </c>
       <c r="Q13">
-        <v>0.01374508519476723</v>
+        <v>0.01350044179287985</v>
       </c>
       <c r="R13">
-        <v>0.31055959759031</v>
+        <v>0.2790053805699779</v>
       </c>
       <c r="S13" t="s">
         <v>23</v>
       </c>
       <c r="T13">
-        <v>0.0002806000000532549</v>
+        <v>0.0002838000000053853</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -984,37 +978,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>11.93732790708526</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>133.2089453727729</v>
+        <v>27.74931162834103</v>
       </c>
       <c r="D14">
-        <v>7.633150151851346</v>
+        <v>11.88059635818486</v>
       </c>
       <c r="E14">
         <v>359.952701416851</v>
       </c>
       <c r="F14">
-        <v>12.01462556909473</v>
+        <v>9.982074189066418</v>
       </c>
       <c r="G14">
-        <v>133.0100005577682</v>
+        <v>27.73115446038248</v>
       </c>
       <c r="H14">
-        <v>7.718118303178603</v>
+        <v>11.93070066051104</v>
       </c>
       <c r="Q14">
-        <v>0.01077030776221089</v>
+        <v>0.01078346264616481</v>
       </c>
       <c r="R14">
-        <v>0.05541908141968716</v>
+        <v>0.02580951554829721</v>
       </c>
       <c r="S14" t="s">
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.0002781999999683649</v>
+        <v>0.0002834000000007109</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1022,37 +1016,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>39.99660847582191</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>42.75741960628422</v>
+        <v>139.9864339032876</v>
       </c>
       <c r="D15">
-        <v>13.24278532661369</v>
+        <v>5.850494640418948</v>
       </c>
       <c r="E15">
         <v>0.07123906620506157</v>
       </c>
       <c r="F15">
-        <v>39.03963592488739</v>
+        <v>9.908342485894925</v>
       </c>
       <c r="G15">
-        <v>44.02972769976893</v>
+        <v>140.3726739034327</v>
       </c>
       <c r="H15">
-        <v>12.22575674527609</v>
+        <v>5.75208239342234</v>
       </c>
       <c r="Q15">
-        <v>0.009876299447504115</v>
+        <v>0.00971546942995008</v>
       </c>
       <c r="R15">
-        <v>0.281491434370301</v>
+        <v>0.08479497897372731</v>
       </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T15">
-        <v>0.0005214000000250962</v>
+        <v>0.0002816000000080976</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1060,37 +1054,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>28.12745046977106</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>139.1697093742734</v>
+        <v>92.50980187908425</v>
       </c>
       <c r="D16">
-        <v>13.70427685724813</v>
+        <v>12.27798062495156</v>
       </c>
       <c r="E16">
         <v>359.8448660888747</v>
       </c>
       <c r="F16">
-        <v>28.84983097718557</v>
+        <v>10.10877145425439</v>
       </c>
       <c r="G16">
-        <v>137.6323756592874</v>
+        <v>92.39746281712465</v>
       </c>
       <c r="H16">
-        <v>14.1218321273738</v>
+        <v>12.55280564658072</v>
       </c>
       <c r="Q16">
-        <v>0.01382417377645327</v>
+        <v>0.01320224675140742</v>
       </c>
       <c r="R16">
-        <v>0.1961932627226244</v>
+        <v>0.1156794515477435</v>
       </c>
       <c r="S16" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.0003958000000352513</v>
+        <v>0.0002674999999925376</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1098,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>43.19679637708604</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>32.20126648577973</v>
+        <v>152.7871855083442</v>
       </c>
       <c r="D17">
-        <v>5.543632143064315</v>
+        <v>5.146751099051982</v>
       </c>
       <c r="E17">
         <v>0.0312328481543536</v>
       </c>
       <c r="F17">
-        <v>42.73069706058843</v>
+        <v>9.965740923700595</v>
       </c>
       <c r="G17">
-        <v>36.36195822322185</v>
+        <v>153.0199487609197</v>
       </c>
       <c r="H17">
-        <v>4.69832370303218</v>
+        <v>5.117827180569142</v>
       </c>
       <c r="Q17">
-        <v>0.01011650132345064</v>
+        <v>0.009918323039016987</v>
       </c>
       <c r="R17">
-        <v>0.5110160156168448</v>
+        <v>0.03338673978484075</v>
       </c>
       <c r="S17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T17">
-        <v>0.0002726000000166096</v>
+        <v>0.0002730999999869255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1136,37 +1130,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>15.04809856190925</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>94.1694014521217</v>
+        <v>40.19239424763699</v>
       </c>
       <c r="D18">
-        <v>10.50701456581181</v>
+        <v>9.277960096808114</v>
       </c>
       <c r="E18">
         <v>359.9872051278866</v>
       </c>
       <c r="F18">
-        <v>14.95336936882381</v>
+        <v>9.965724759254865</v>
       </c>
       <c r="G18">
-        <v>94.13556774842462</v>
+        <v>40.17125492690503</v>
       </c>
       <c r="H18">
-        <v>10.42628280732428</v>
+        <v>9.235864632896945</v>
       </c>
       <c r="Q18">
-        <v>0.009334374606741535</v>
+        <v>0.009312054065419602</v>
       </c>
       <c r="R18">
-        <v>0.03374539834761524</v>
+        <v>0.02078260734829304</v>
       </c>
       <c r="S18" t="s">
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.0002797999999870626</v>
+        <v>0.0002827999999936992</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1174,37 +1168,37 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>18.25992512091994</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>95.50561600895294</v>
+        <v>53.03970048367974</v>
       </c>
       <c r="D19">
-        <v>6.915207869474949</v>
+        <v>9.367041067263528</v>
       </c>
       <c r="E19">
         <v>359.9723734109978</v>
       </c>
       <c r="F19">
-        <v>18.20499210397714</v>
+        <v>9.97565069485656</v>
       </c>
       <c r="G19">
-        <v>95.28107375769837</v>
+        <v>52.98582793100152</v>
       </c>
       <c r="H19">
-        <v>6.904714720637453</v>
+        <v>9.358020187834702</v>
       </c>
       <c r="Q19">
-        <v>0.01055454231729442</v>
+        <v>0.01053988115898139</v>
       </c>
       <c r="R19">
-        <v>0.02132769507878606</v>
+        <v>0.01471929038793158</v>
       </c>
       <c r="S19" t="s">
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.0002671999999961372</v>
+        <v>0.0002831000000043105</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1212,37 +1206,37 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>34.26684087828163</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>90.98160727227172</v>
+        <v>117.0673635131265</v>
       </c>
       <c r="D20">
-        <v>13.78601470921552</v>
+        <v>9.065440484818115</v>
       </c>
       <c r="E20">
         <v>359.9920571556194</v>
       </c>
       <c r="F20">
-        <v>33.54759925423352</v>
+        <v>9.925048493078268</v>
       </c>
       <c r="G20">
-        <v>90.96610342971286</v>
+        <v>117.0239036060819</v>
       </c>
       <c r="H20">
-        <v>13.43815414173273</v>
+        <v>8.974366032312147</v>
       </c>
       <c r="Q20">
-        <v>0.01093317283061745</v>
+        <v>0.01080468955574496</v>
       </c>
       <c r="R20">
-        <v>0.1004378464622869</v>
+        <v>0.04067996422198301</v>
       </c>
       <c r="S20" t="s">
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.0002585999999951127</v>
+        <v>0.0003072999999886861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1250,37 +1244,37 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>9.389012078725322</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>137.0249490014741</v>
+        <v>17.55604831490129</v>
       </c>
       <c r="D21">
-        <v>7.46937973166327</v>
+        <v>12.13499660009828</v>
       </c>
       <c r="E21">
         <v>359.9778996737318</v>
       </c>
       <c r="F21">
-        <v>9.396110945200178</v>
+        <v>9.920012279078234</v>
       </c>
       <c r="G21">
-        <v>136.9413282480976</v>
+        <v>17.44588195074125</v>
       </c>
       <c r="H21">
-        <v>7.483640979863263</v>
+        <v>12.1424125496737</v>
       </c>
       <c r="Q21">
-        <v>0.01019221110354565</v>
+        <v>0.01022301614842393</v>
       </c>
       <c r="R21">
-        <v>0.01364897478635487</v>
+        <v>0.02313832964487056</v>
       </c>
       <c r="S21" t="s">
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.0002760000000421314</v>
+        <v>0.0002862999999990734</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1288,37 +1282,37 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>31.46588604847734</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>161.5884710236952</v>
+        <v>105.8635441939094</v>
       </c>
       <c r="D22">
-        <v>13.91530729474708</v>
+        <v>13.77256473491301</v>
       </c>
       <c r="E22">
         <v>359.9116106887382</v>
       </c>
       <c r="F22">
-        <v>31.6851583021692</v>
+        <v>10.00770543483179</v>
       </c>
       <c r="G22">
-        <v>160.5170988650729</v>
+        <v>105.7463987794899</v>
       </c>
       <c r="H22">
-        <v>13.81539298296621</v>
+        <v>13.84150705378124</v>
       </c>
       <c r="Q22">
-        <v>0.009752234915584041</v>
+        <v>0.009698019835016454</v>
       </c>
       <c r="R22">
-        <v>0.07844634854437281</v>
+        <v>0.03882463230548757</v>
       </c>
       <c r="S22" t="s">
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.0002630999999837513</v>
+        <v>0.0002692999999993617</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1326,37 +1320,37 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>7.192619636410728</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>52.03973876216703</v>
+        <v>8.770478545642913</v>
       </c>
       <c r="D23">
-        <v>12.2096634683123</v>
+        <v>6.469315917477802</v>
       </c>
       <c r="E23">
         <v>0.005196424950550942</v>
       </c>
       <c r="F23">
-        <v>7.149269177262537</v>
+        <v>9.978788455259393</v>
       </c>
       <c r="G23">
-        <v>51.95653487479967</v>
+        <v>8.692931321914338</v>
       </c>
       <c r="H23">
-        <v>12.11680082257034</v>
+        <v>6.422057995722246</v>
       </c>
       <c r="Q23">
-        <v>0.01047192746523226</v>
+        <v>0.01041438660760503</v>
       </c>
       <c r="R23">
-        <v>0.03243849848635368</v>
+        <v>0.0250353777237892</v>
       </c>
       <c r="S23" t="s">
         <v>22</v>
       </c>
       <c r="T23">
-        <v>0.0002622999999744025</v>
+        <v>0.0004623000000094635</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1364,37 +1358,37 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>14.38072418114792</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>86.70259111740586</v>
+        <v>37.52289672459167</v>
       </c>
       <c r="D24">
-        <v>9.205380353143747</v>
+        <v>8.78017274116039</v>
       </c>
       <c r="E24">
         <v>0.009194991986513107</v>
       </c>
       <c r="F24">
-        <v>14.24440459002109</v>
+        <v>9.94274486824154</v>
       </c>
       <c r="G24">
-        <v>86.65347812046372</v>
+        <v>37.42304474258646</v>
       </c>
       <c r="H24">
-        <v>9.078984297991409</v>
+        <v>8.704738976941375</v>
       </c>
       <c r="Q24">
-        <v>0.01014943754643659</v>
+        <v>0.01012404603312982</v>
       </c>
       <c r="R24">
-        <v>0.05365213088550947</v>
+        <v>0.03581600918041174</v>
       </c>
       <c r="S24" t="s">
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.0002748999999653279</v>
+        <v>0.0002805000000023483</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1402,37 +1396,37 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>28.27840477309651</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>170.4532686866665</v>
+        <v>93.11361909238606</v>
       </c>
       <c r="D25">
-        <v>12.65459759396907</v>
+        <v>14.36355124577777</v>
       </c>
       <c r="E25">
         <v>359.9333011943647</v>
       </c>
       <c r="F25">
-        <v>28.41964264197639</v>
+        <v>9.998250560491485</v>
       </c>
       <c r="G25">
-        <v>169.6814275815166</v>
+        <v>93.06433340539022</v>
       </c>
       <c r="H25">
-        <v>12.49494007288496</v>
+        <v>14.40507235501156</v>
       </c>
       <c r="Q25">
-        <v>0.009837028549362461</v>
+        <v>0.009799871791871615</v>
       </c>
       <c r="R25">
-        <v>0.07583638299322784</v>
+        <v>0.02542523500206785</v>
       </c>
       <c r="S25" t="s">
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.0002671999999961372</v>
+        <v>0.0002759000000054357</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1440,37 +1434,37 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>48.20077865011633</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>125.9121689909237</v>
+        <v>172.8031146004653</v>
       </c>
       <c r="D26">
-        <v>14.99867292623879</v>
+        <v>11.39414459939491</v>
       </c>
       <c r="E26">
         <v>359.8670787827351</v>
       </c>
       <c r="F26">
-        <v>48.89588378342931</v>
+        <v>9.984362719285835</v>
       </c>
       <c r="G26">
-        <v>123.0624312800671</v>
+        <v>172.6597273088172</v>
       </c>
       <c r="H26">
-        <v>15.19834769059891</v>
+        <v>11.38516505159585</v>
       </c>
       <c r="Q26">
-        <v>0.0124418412927274</v>
+        <v>0.02102692188706686</v>
       </c>
       <c r="R26">
-        <v>0.1617908779326553</v>
+        <v>0.0413914111012518</v>
       </c>
       <c r="S26" t="s">
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.0002540000000408327</v>
+        <v>0.0002788999999978614</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1478,37 +1472,37 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>44.15558614822454</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>104.8098471610608</v>
+        <v>156.6223445928981</v>
       </c>
       <c r="D27">
-        <v>7.78838940701069</v>
+        <v>9.987323144070718</v>
       </c>
       <c r="E27">
         <v>359.9771726910334</v>
       </c>
       <c r="F27">
-        <v>43.68180001217184</v>
+        <v>10.00933396123289</v>
       </c>
       <c r="G27">
-        <v>104.8054133730846</v>
+        <v>156.5901451182495</v>
       </c>
       <c r="H27">
-        <v>7.691197666283087</v>
+        <v>10.00152965355218</v>
       </c>
       <c r="Q27">
-        <v>0.01048974533247815</v>
+        <v>0.01038729655415976</v>
       </c>
       <c r="R27">
-        <v>0.05489851839650949</v>
+        <v>0.01162360974537075</v>
       </c>
       <c r="S27" t="s">
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.0002681999999936124</v>
+        <v>0.0002747999999996864</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1516,37 +1510,37 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18.85707286812369</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>93.49046627495413</v>
+        <v>55.42829147249475</v>
       </c>
       <c r="D28">
-        <v>12.68297661537973</v>
+        <v>9.232697751663608</v>
       </c>
       <c r="E28">
         <v>359.980400678834</v>
       </c>
       <c r="F28">
-        <v>18.83471978448578</v>
+        <v>10.01469918366371</v>
       </c>
       <c r="G28">
-        <v>93.55742721064433</v>
+        <v>55.52302827194942</v>
       </c>
       <c r="H28">
-        <v>12.66169601785234</v>
+        <v>9.232615792480845</v>
       </c>
       <c r="Q28">
-        <v>0.008813535573512792</v>
+        <v>0.008784459055663692</v>
       </c>
       <c r="R28">
-        <v>0.01274422904844767</v>
+        <v>0.009740306863920592</v>
       </c>
       <c r="S28" t="s">
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.0002579999999738902</v>
+        <v>0.0003135999999983596</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1554,37 +1548,37 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>24.15746347335031</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>146.6250732890195</v>
+        <v>76.62985389340125</v>
       </c>
       <c r="D29">
-        <v>12.3539729019968</v>
+        <v>12.77500488593463</v>
       </c>
       <c r="E29">
         <v>359.8714394584768</v>
       </c>
       <c r="F29">
-        <v>24.63564032059417</v>
+        <v>10.00837189737591</v>
       </c>
       <c r="G29">
-        <v>145.5415559108465</v>
+        <v>76.51986633122554</v>
       </c>
       <c r="H29">
-        <v>12.63438155368162</v>
+        <v>12.88643492379555</v>
       </c>
       <c r="Q29">
-        <v>0.01172580441318288</v>
+        <v>0.01148121105001751</v>
       </c>
       <c r="R29">
-        <v>0.1489629774906633</v>
+        <v>0.05809140196457613</v>
       </c>
       <c r="S29" t="s">
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.0002800999999976739</v>
+        <v>0.0002810000000010859</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1592,37 +1586,37 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>37.80561840301036</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>101.0231284189754</v>
+        <v>131.2224736120414</v>
       </c>
       <c r="D30">
-        <v>6.249670920092409</v>
+        <v>9.734875227931694</v>
       </c>
       <c r="E30">
         <v>359.955366762213</v>
       </c>
       <c r="F30">
-        <v>37.34407095248593</v>
+        <v>10.05940759115504</v>
       </c>
       <c r="G30">
-        <v>97.8574767566809</v>
+        <v>131.1288954100122</v>
       </c>
       <c r="H30">
-        <v>6.188932117034398</v>
+        <v>9.828330427891247</v>
       </c>
       <c r="Q30">
-        <v>0.0107784137292631</v>
+        <v>0.01054387967627398</v>
       </c>
       <c r="R30">
-        <v>0.1349437938766498</v>
+        <v>0.04739913184111001</v>
       </c>
       <c r="S30" t="s">
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.0002781000000027234</v>
+        <v>0.000347599999997783</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1630,37 +1624,37 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>43.86919935065373</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>51.28307374097282</v>
+        <v>155.4767974026149</v>
       </c>
       <c r="D31">
-        <v>5.73256388083736</v>
+        <v>6.418871582731521</v>
       </c>
       <c r="E31">
         <v>0.04174821263045001</v>
       </c>
       <c r="F31">
-        <v>42.97061737734211</v>
+        <v>9.903535817245629</v>
       </c>
       <c r="G31">
-        <v>58.61244518000918</v>
+        <v>155.7736990152185</v>
       </c>
       <c r="H31">
-        <v>4.868606465108015</v>
+        <v>6.320837598940384</v>
       </c>
       <c r="Q31">
-        <v>0.01187068061529285</v>
+        <v>0.01162132010240124</v>
       </c>
       <c r="R31">
-        <v>0.6045862038467918</v>
+        <v>0.07211889568199251</v>
       </c>
       <c r="S31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T31">
-        <v>0.0002573999999526677</v>
+        <v>0.0002702000000027738</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1668,37 +1662,37 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>33.98645912307507</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>68.53472813432097</v>
+        <v>115.9458364923003</v>
       </c>
       <c r="D32">
-        <v>11.63047905335669</v>
+        <v>7.568981875621398</v>
       </c>
       <c r="E32">
         <v>0.1264052664776349</v>
       </c>
       <c r="F32">
-        <v>33.15901466528672</v>
+        <v>9.847952909204597</v>
       </c>
       <c r="G32">
-        <v>70.84027622024833</v>
+        <v>116.2344461675758</v>
       </c>
       <c r="H32">
-        <v>10.78833513799975</v>
+        <v>7.349905760610697</v>
       </c>
       <c r="Q32">
-        <v>0.01124813724629513</v>
+        <v>0.0112185145978103</v>
       </c>
       <c r="R32">
-        <v>0.3108380821395028</v>
+        <v>0.1365175763427838</v>
       </c>
       <c r="S32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T32">
-        <v>0.0002518000000009124</v>
+        <v>0.0002772999999933745</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1706,37 +1700,37 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>17.8724219747232</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>172.45900197342</v>
+        <v>51.48968789889281</v>
       </c>
       <c r="D33">
-        <v>12.70312932218878</v>
+        <v>14.497266798228</v>
       </c>
       <c r="E33">
         <v>0.04147572142515835</v>
       </c>
       <c r="F33">
-        <v>17.58361606515715</v>
+        <v>9.931057674470438</v>
       </c>
       <c r="G33">
-        <v>172.7744053481552</v>
+        <v>51.42797033577097</v>
       </c>
       <c r="H33">
-        <v>12.46143849088945</v>
+        <v>14.33031168133747</v>
       </c>
       <c r="Q33">
-        <v>0.01047732694259265</v>
+        <v>0.01022572164965756</v>
       </c>
       <c r="R33">
-        <v>0.0927514040269978</v>
+        <v>0.05219304897224761</v>
       </c>
       <c r="S33" t="s">
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.0002660000000105356</v>
+        <v>0.000278499999993187</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1744,37 +1738,37 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>43.65001702818679</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>67.08800789555039</v>
+        <v>154.6000681127472</v>
       </c>
       <c r="D34">
-        <v>10.55128777998597</v>
+        <v>7.472533859703359</v>
       </c>
       <c r="E34">
         <v>0.03488944509893788</v>
       </c>
       <c r="F34">
-        <v>42.41078792961647</v>
+        <v>9.849540615921621</v>
       </c>
       <c r="G34">
-        <v>68.3588829948758</v>
+        <v>154.8292936449486</v>
       </c>
       <c r="H34">
-        <v>9.95778784949476</v>
+        <v>7.304598954305045</v>
       </c>
       <c r="Q34">
-        <v>0.009892791595689262</v>
+        <v>0.009638062741198283</v>
       </c>
       <c r="R34">
-        <v>0.2284337296642523</v>
+        <v>0.09571361994884768</v>
       </c>
       <c r="S34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T34">
-        <v>0.0002666999999973996</v>
+        <v>0.0003679000000005317</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1782,37 +1776,37 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>16.18295573469785</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>80.99557578914319</v>
+        <v>44.73182293879139</v>
       </c>
       <c r="D35">
-        <v>9.109408029965408</v>
+        <v>8.399705052609546</v>
       </c>
       <c r="E35">
         <v>0.03188535051081121</v>
       </c>
       <c r="F35">
-        <v>16.07849345766994</v>
+        <v>9.986551404409624</v>
       </c>
       <c r="G35">
-        <v>81.21308156849481</v>
+        <v>44.78481018489562</v>
       </c>
       <c r="H35">
-        <v>8.97764065162284</v>
+        <v>8.322191042512678</v>
       </c>
       <c r="Q35">
-        <v>0.00946480366617145</v>
+        <v>0.009443795883085682</v>
       </c>
       <c r="R35">
-        <v>0.06032989179351356</v>
+        <v>0.03460790730881548</v>
       </c>
       <c r="S35" t="s">
         <v>22</v>
       </c>
       <c r="T35">
-        <v>0.0002564000000120359</v>
+        <v>0.0003042999999962603</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1820,37 +1814,37 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>6.735275639663435</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>140.4180828944415</v>
+        <v>6.941102558653737</v>
       </c>
       <c r="D36">
-        <v>5.927037553341333</v>
+        <v>12.3612055262961</v>
       </c>
       <c r="E36">
         <v>359.9756164899372</v>
       </c>
       <c r="F36">
-        <v>6.721867105613628</v>
+        <v>9.914808378267695</v>
       </c>
       <c r="G36">
-        <v>140.3670412142008</v>
+        <v>6.879364887567876</v>
       </c>
       <c r="H36">
-        <v>5.912368715550508</v>
+        <v>12.3672864983207</v>
       </c>
       <c r="Q36">
-        <v>0.009953716191811698</v>
+        <v>0.009959075864280607</v>
       </c>
       <c r="R36">
-        <v>0.01687716177605513</v>
+        <v>0.02306777303178473</v>
       </c>
       <c r="S36" t="s">
         <v>22</v>
       </c>
       <c r="T36">
-        <v>0.0002671999999961372</v>
+        <v>0.0002913000000006605</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1858,37 +1852,37 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>25.61247267008407</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>55.50292925368409</v>
+        <v>82.4498906803363</v>
       </c>
       <c r="D37">
-        <v>7.314870450355623</v>
+        <v>6.70019528357894</v>
       </c>
       <c r="E37">
         <v>0.1889736710087823</v>
       </c>
       <c r="F37">
-        <v>25.11810171544288</v>
+        <v>9.872229553031776</v>
       </c>
       <c r="G37">
-        <v>60.19968184647994</v>
+        <v>82.88432857241065</v>
       </c>
       <c r="H37">
-        <v>6.344982023592584</v>
+        <v>6.441895350034447</v>
       </c>
       <c r="Q37">
-        <v>0.01284329789080733</v>
+        <v>0.01257455142698614</v>
       </c>
       <c r="R37">
-        <v>0.5283105015006664</v>
+        <v>0.1757772026631977</v>
       </c>
       <c r="S37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T37">
-        <v>0.0002868999999918742</v>
+        <v>0.000282699999999636</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1896,37 +1890,37 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>37.78282362180765</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>108.2905582266384</v>
+        <v>131.1312944872306</v>
       </c>
       <c r="D38">
-        <v>14.52180667406014</v>
+        <v>10.21937054844256</v>
       </c>
       <c r="E38">
         <v>359.9323586734246</v>
       </c>
       <c r="F38">
-        <v>37.48914702463534</v>
+        <v>10.05693790504928</v>
       </c>
       <c r="G38">
-        <v>107.3235491493209</v>
+        <v>131.0158150149992</v>
       </c>
       <c r="H38">
-        <v>14.46685748336716</v>
+        <v>10.32030117346007</v>
       </c>
       <c r="Q38">
-        <v>0.01110207797372233</v>
+        <v>0.01103940517739423</v>
       </c>
       <c r="R38">
-        <v>0.06349992050518465</v>
+        <v>0.05397797754337524</v>
       </c>
       <c r="S38" t="s">
         <v>22</v>
       </c>
       <c r="T38">
-        <v>0.000275999999985288</v>
+        <v>0.0002843999999981861</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1934,37 +1928,37 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>47.50234712857881</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>83.53767137479336</v>
+        <v>170.0093885143152</v>
       </c>
       <c r="D39">
-        <v>6.927950289571577</v>
+        <v>8.569178091652891</v>
       </c>
       <c r="E39">
         <v>0.005446361233744566</v>
       </c>
       <c r="F39">
-        <v>46.40575852701036</v>
+        <v>9.979747880515843</v>
       </c>
       <c r="G39">
-        <v>86.05426797768405</v>
+        <v>170.0466654172114</v>
       </c>
       <c r="H39">
-        <v>6.615448933284671</v>
+        <v>8.544544131216819</v>
       </c>
       <c r="Q39">
-        <v>0.009499024115064626</v>
+        <v>0.009340558774197082</v>
       </c>
       <c r="R39">
-        <v>0.2155197281499778</v>
+        <v>0.0128556581905749</v>
       </c>
       <c r="S39" t="s">
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.0002647000000024491</v>
+        <v>0.0002713000000085231</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1972,37 +1966,37 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>22.31479037825347</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>154.7474123863114</v>
+        <v>69.25916151301388</v>
       </c>
       <c r="D40">
-        <v>14.4419963580742</v>
+        <v>13.31649415908743</v>
       </c>
       <c r="E40">
         <v>359.8991294351883</v>
       </c>
       <c r="F40">
-        <v>22.77975421963616</v>
+        <v>9.991726724461648</v>
       </c>
       <c r="G40">
-        <v>154.1812215563443</v>
+        <v>69.19240769433397</v>
       </c>
       <c r="H40">
-        <v>14.80740567721089</v>
+        <v>13.38191530048151</v>
       </c>
       <c r="Q40">
-        <v>0.01012177926243708</v>
+        <v>0.01006541642453373</v>
       </c>
       <c r="R40">
-        <v>0.1373546809945244</v>
+        <v>0.04054734131196396</v>
       </c>
       <c r="S40" t="s">
         <v>22</v>
       </c>
       <c r="T40">
-        <v>0.000271999999995387</v>
+        <v>0.0002779000000003862</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2010,37 +2004,37 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>29.61001202654096</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>143.6218238308689</v>
+        <v>98.44004810616384</v>
       </c>
       <c r="D41">
-        <v>13.20401879898381</v>
+        <v>12.57478825539126</v>
       </c>
       <c r="E41">
         <v>359.8595160433978</v>
       </c>
       <c r="F41">
-        <v>30.24428933136436</v>
+        <v>10.07768462983207</v>
       </c>
       <c r="G41">
-        <v>142.1264404394974</v>
+        <v>98.35361298735494</v>
       </c>
       <c r="H41">
-        <v>13.48639263549896</v>
+        <v>12.77143040989596</v>
       </c>
       <c r="Q41">
-        <v>0.01289650039984876</v>
+        <v>0.01268180091017414</v>
       </c>
       <c r="R41">
-        <v>0.1616709262828448</v>
+        <v>0.0893238314155205</v>
       </c>
       <c r="S41" t="s">
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.000265500000011798</v>
+        <v>0.0002779000000003862</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2048,37 +2042,37 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>23.34591626361287</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>9.965887220134814</v>
+        <v>73.3836650544515</v>
       </c>
       <c r="D42">
-        <v>12.88534877486753</v>
+        <v>3.664392481342321</v>
       </c>
       <c r="E42">
         <v>0.06075476972112828</v>
       </c>
       <c r="F42">
-        <v>23.54820864069898</v>
+        <v>10.00388772928008</v>
       </c>
       <c r="G42">
-        <v>10.14393777520219</v>
+        <v>74.01568150805049</v>
       </c>
       <c r="H42">
-        <v>12.07180216892146</v>
+        <v>3.606704434657233</v>
       </c>
       <c r="Q42">
-        <v>0.01072452948563351</v>
+        <v>0.01070969423279832</v>
       </c>
       <c r="R42">
-        <v>0.1919249659865609</v>
+        <v>0.07099422834402382</v>
       </c>
       <c r="S42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T42">
-        <v>0.0002931999999873369</v>
+        <v>0.0002898999999985108</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2086,37 +2080,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>16.29156306852231</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>8.297247721070116</v>
+        <v>45.16625227408922</v>
       </c>
       <c r="D43">
-        <v>11.76816241110558</v>
+        <v>3.553149848071341</v>
       </c>
       <c r="E43">
         <v>0.0270712323067284</v>
       </c>
       <c r="F43">
-        <v>16.34096308506469</v>
+        <v>10.00933059372561</v>
       </c>
       <c r="G43">
-        <v>8.294753853246764</v>
+        <v>45.3600054894821</v>
       </c>
       <c r="H43">
-        <v>11.58875883799376</v>
+        <v>3.520796654430776</v>
       </c>
       <c r="Q43">
-        <v>0.01058906293594712</v>
+        <v>0.01057343082937924</v>
       </c>
       <c r="R43">
-        <v>0.04999595881513699</v>
+        <v>0.03593047876073967</v>
       </c>
       <c r="S43" t="s">
         <v>22</v>
       </c>
       <c r="T43">
-        <v>0.0002702999999542044</v>
+        <v>0.0002843999999981861</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2124,37 +2118,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>21.85430534813131</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>171.1285751537849</v>
+        <v>67.41722139252525</v>
       </c>
       <c r="D44">
-        <v>12.31993941811405</v>
+        <v>14.40857167691899</v>
       </c>
       <c r="E44">
         <v>359.9503285846989</v>
       </c>
       <c r="F44">
-        <v>21.9672355318806</v>
+        <v>9.961179365841755</v>
       </c>
       <c r="G44">
-        <v>170.7799829583304</v>
+        <v>67.29721187973306</v>
       </c>
       <c r="H44">
-        <v>12.33817834260796</v>
+        <v>14.40491702947443</v>
       </c>
       <c r="Q44">
-        <v>0.009615189776154116</v>
+        <v>0.009549055497242082</v>
       </c>
       <c r="R44">
-        <v>0.03344610948496216</v>
+        <v>0.02252230728436621</v>
       </c>
       <c r="S44" t="s">
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.0002646999999456057</v>
+        <v>0.000286799999997811</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2162,37 +2156,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>10.17745548754005</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>109.6319770703066</v>
+        <v>20.70982195016021</v>
       </c>
       <c r="D45">
-        <v>6.333909641859883</v>
+        <v>10.30879847135378</v>
       </c>
       <c r="E45">
         <v>359.9742600074655</v>
       </c>
       <c r="F45">
-        <v>10.17709335795955</v>
+        <v>9.961719521768165</v>
       </c>
       <c r="G45">
-        <v>109.5221406303172</v>
+        <v>20.64599824577198</v>
       </c>
       <c r="H45">
-        <v>6.343650217480418</v>
+        <v>10.32806575270115</v>
       </c>
       <c r="Q45">
-        <v>0.0102856917663531</v>
+        <v>0.01029330263332503</v>
       </c>
       <c r="R45">
-        <v>0.01308482592264381</v>
+        <v>0.01908320367375556</v>
       </c>
       <c r="S45" t="s">
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.000371299999983421</v>
+        <v>0.0003135000000042965</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2200,37 +2194,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>42.56789668995422</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>18.86329878657655</v>
+        <v>150.2715867598169</v>
       </c>
       <c r="D46">
-        <v>12.44640481679518</v>
+        <v>4.257553252438437</v>
       </c>
       <c r="E46">
         <v>0.07506147172559083</v>
       </c>
       <c r="F46">
-        <v>41.6348638238177</v>
+        <v>9.91970919049996</v>
       </c>
       <c r="G46">
-        <v>21.23394447708855</v>
+        <v>151.1504043473629</v>
       </c>
       <c r="H46">
-        <v>9.824555526411249</v>
+        <v>4.203433321482578</v>
       </c>
       <c r="Q46">
-        <v>0.01075751706674376</v>
+        <v>0.01075199922371407</v>
       </c>
       <c r="R46">
-        <v>0.6411905085981912</v>
+        <v>0.08589638432784868</v>
       </c>
       <c r="S46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T46">
-        <v>0.0002701999999885629</v>
+        <v>0.0002929999999992106</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2238,37 +2232,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>49.50551810640201</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>98.91805083205058</v>
+        <v>178.022072425608</v>
       </c>
       <c r="D47">
-        <v>7.814473019550628</v>
+        <v>9.594536722136706</v>
       </c>
       <c r="E47">
         <v>359.997362522715</v>
       </c>
       <c r="F47">
-        <v>48.01797510241729</v>
+        <v>9.990250054265028</v>
       </c>
       <c r="G47">
-        <v>99.34889127601001</v>
+        <v>178.024656147526</v>
       </c>
       <c r="H47">
-        <v>7.494202551546602</v>
+        <v>9.582287208786642</v>
       </c>
       <c r="Q47">
-        <v>0.009139102993711911</v>
+        <v>0.008954538897668386</v>
       </c>
       <c r="R47">
-        <v>0.1639710943590341</v>
+        <v>0.005540747182506895</v>
       </c>
       <c r="S47" t="s">
         <v>22</v>
       </c>
       <c r="T47">
-        <v>0.0002573999999526677</v>
+        <v>0.000282599999991362</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2276,37 +2270,37 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>40.27245578625878</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>114.2700670894914</v>
+        <v>141.0898231450351</v>
       </c>
       <c r="D48">
-        <v>7.490430915157489</v>
+        <v>10.61800447263276</v>
       </c>
       <c r="E48">
         <v>359.941512416013</v>
       </c>
       <c r="F48">
-        <v>39.42047471492163</v>
+        <v>10.02615564260831</v>
       </c>
       <c r="G48">
-        <v>111.7642433483646</v>
+        <v>140.9950647200839</v>
       </c>
       <c r="H48">
-        <v>7.269810761088842</v>
+        <v>10.67068671966585</v>
       </c>
       <c r="Q48">
-        <v>0.01081301645378474</v>
+        <v>0.01072272905711693</v>
       </c>
       <c r="R48">
-        <v>0.1861605368938997</v>
+        <v>0.03375412003863615</v>
       </c>
       <c r="S48" t="s">
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.0002580000000307336</v>
+        <v>0.0002675999999866008</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2314,37 +2308,37 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>10.10698123521423</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>175.4069569985622</v>
+        <v>20.42792494085692</v>
       </c>
       <c r="D49">
-        <v>12.28734633501106</v>
+        <v>14.69379713323748</v>
       </c>
       <c r="E49">
         <v>0.0848009475766186</v>
       </c>
       <c r="F49">
-        <v>10.10375956688621</v>
+        <v>10.02283560247081</v>
       </c>
       <c r="G49">
-        <v>175.5048180619633</v>
+        <v>20.43266335876702</v>
       </c>
       <c r="H49">
-        <v>12.27554958082058</v>
+        <v>14.46219393865535</v>
       </c>
       <c r="Q49">
-        <v>0.01384398265399614</v>
+        <v>0.009737028640018649</v>
       </c>
       <c r="R49">
-        <v>0.02657820816522885</v>
+        <v>0.06452955693467062</v>
       </c>
       <c r="S49" t="s">
         <v>22</v>
       </c>
       <c r="T49">
-        <v>0.0002646000000368076</v>
+        <v>0.0003093999999919106</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2352,37 +2346,37 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>5.787062191901868</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>160.4831880924465</v>
+        <v>3.148248767607473</v>
       </c>
       <c r="D50">
-        <v>7.848611674739184</v>
+        <v>13.6988792061631</v>
       </c>
       <c r="E50">
         <v>0.09936313199284796</v>
       </c>
       <c r="F50">
-        <v>5.779482825751173</v>
+        <v>10.16224357074039</v>
       </c>
       <c r="G50">
-        <v>160.5834127921745</v>
+        <v>3.048085695313029</v>
       </c>
       <c r="H50">
-        <v>7.825184737974471</v>
+        <v>13.39550406776493</v>
       </c>
       <c r="Q50">
-        <v>0.01382313144302103</v>
+        <v>0.0112805937201387</v>
       </c>
       <c r="R50">
-        <v>0.03699137606876803</v>
+        <v>0.1097504110382407</v>
       </c>
       <c r="S50" t="s">
         <v>22</v>
       </c>
       <c r="T50">
-        <v>0.0002476000000228851</v>
+        <v>0.0002819999999985612</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2390,37 +2384,37 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>18.54340051351615</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>44.4711297531266</v>
+        <v>54.17360205406462</v>
       </c>
       <c r="D51">
-        <v>14.26335135059176</v>
+        <v>5.964741983541773</v>
       </c>
       <c r="E51">
         <v>0.1043159078206541</v>
       </c>
       <c r="F51">
-        <v>18.36111810686011</v>
+        <v>9.988102581207318</v>
       </c>
       <c r="G51">
-        <v>44.82820687065708</v>
+        <v>54.58471216671806</v>
       </c>
       <c r="H51">
-        <v>13.7296147830661</v>
+        <v>5.812849178491636</v>
       </c>
       <c r="Q51">
-        <v>0.01129342533439236</v>
+        <v>0.0113801119102742</v>
       </c>
       <c r="R51">
-        <v>0.144939651832757</v>
+        <v>0.102002405521961</v>
       </c>
       <c r="S51" t="s">
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.0003196999999772743</v>
+        <v>0.0002845000000064601</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2428,37 +2422,37 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>27.25707404921096</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>41.05495880088052</v>
+        <v>89.02829619684385</v>
       </c>
       <c r="D52">
-        <v>7.554739237572114</v>
+        <v>5.736997253392035</v>
       </c>
       <c r="E52">
         <v>0.1560352108683698</v>
       </c>
       <c r="F52">
-        <v>26.84906907265656</v>
+        <v>9.888394252550633</v>
       </c>
       <c r="G52">
-        <v>44.72596011075124</v>
+        <v>89.52708200120303</v>
       </c>
       <c r="H52">
-        <v>6.443864621184216</v>
+        <v>5.541496707396889</v>
       </c>
       <c r="Q52">
-        <v>0.01230855740069259</v>
+        <v>0.01221638125190393</v>
       </c>
       <c r="R52">
-        <v>0.5233403159225107</v>
+        <v>0.1552722938255188</v>
       </c>
       <c r="S52" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T52">
-        <v>0.0002666000000317581</v>
+        <v>0.000278600000001461</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2466,37 +2460,37 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>35.40791369765985</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>8.048192796530287</v>
+        <v>121.6316547906394</v>
       </c>
       <c r="D53">
-        <v>8.433036725425923</v>
+        <v>3.536546186435352</v>
       </c>
       <c r="E53">
         <v>0.02905031733486384</v>
       </c>
       <c r="F53">
-        <v>35.53650012560041</v>
+        <v>9.997840147528958</v>
       </c>
       <c r="G53">
-        <v>8.405460988253298</v>
+        <v>121.9834626707917</v>
       </c>
       <c r="H53">
-        <v>7.51389321062316</v>
+        <v>3.526876157806387</v>
       </c>
       <c r="Q53">
-        <v>0.01012329230374764</v>
+        <v>0.009990669834620929</v>
       </c>
       <c r="R53">
-        <v>0.2947298634322787</v>
+        <v>0.0232535373712578</v>
       </c>
       <c r="S53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T53">
-        <v>0.0002595000000269465</v>
+        <v>0.0002876000000071599</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2504,37 +2498,37 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>42.03996533194064</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>4.70123668257612</v>
+        <v>148.1598613277625</v>
       </c>
       <c r="D54">
-        <v>7.107706399312939</v>
+        <v>3.313415778838408</v>
       </c>
       <c r="E54">
         <v>359.9480524159385</v>
       </c>
       <c r="F54">
-        <v>40.5675813047766</v>
+        <v>10.00882892650137</v>
       </c>
       <c r="G54">
-        <v>4.13742373206701</v>
+        <v>147.5244128379511</v>
       </c>
       <c r="H54">
-        <v>8.480553650757575</v>
+        <v>3.314163214495665</v>
       </c>
       <c r="Q54">
-        <v>0.009460725436053804</v>
+        <v>0.009268666797012309</v>
       </c>
       <c r="R54">
-        <v>0.5683274181369868</v>
+        <v>0.03090854248420482</v>
       </c>
       <c r="S54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T54">
-        <v>0.0004164000000059787</v>
+        <v>0.0002846000000005233</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2542,37 +2536,37 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>43.09980832445602</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>101.0097972477061</v>
+        <v>152.3992332978241</v>
       </c>
       <c r="D55">
-        <v>9.548754024057528</v>
+        <v>9.733986483180409</v>
       </c>
       <c r="E55">
         <v>359.979413513315</v>
       </c>
       <c r="F55">
-        <v>42.31845730007957</v>
+        <v>9.974822684460568</v>
       </c>
       <c r="G55">
-        <v>100.9079912324604</v>
+        <v>152.3822120175871</v>
       </c>
       <c r="H55">
-        <v>9.346865175695356</v>
+        <v>9.704611481433412</v>
       </c>
       <c r="Q55">
-        <v>0.01050767269289863</v>
+        <v>0.01036872976068262</v>
       </c>
       <c r="R55">
-        <v>0.09076394330356549</v>
+        <v>0.01731281574702494</v>
       </c>
       <c r="S55" t="s">
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.0002546000000052118</v>
+        <v>0.0002783999999991238</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2580,37 +2574,37 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>23.90823352133483</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>65.38310945371541</v>
+        <v>75.6329340853393</v>
       </c>
       <c r="D56">
-        <v>6.848766877614517</v>
+        <v>7.358873963581027</v>
       </c>
       <c r="E56">
         <v>0.185221074461286</v>
       </c>
       <c r="F56">
-        <v>23.5745387991366</v>
+        <v>9.91871144848567</v>
       </c>
       <c r="G56">
-        <v>69.61197487848823</v>
+        <v>75.97542222293195</v>
       </c>
       <c r="H56">
-        <v>6.187914652102406</v>
+        <v>7.135995389518921</v>
       </c>
       <c r="Q56">
-        <v>0.01198173203266338</v>
+        <v>0.01171823869425734</v>
       </c>
       <c r="R56">
-        <v>0.4165194636115969</v>
+        <v>0.1441331857071941</v>
       </c>
       <c r="S56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T56">
-        <v>0.0003163000000085958</v>
+        <v>0.0002841999999958489</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2618,37 +2612,37 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>9.18987290023361</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>174.8980655981618</v>
+        <v>16.75949160093444</v>
       </c>
       <c r="D57">
-        <v>9.838599804636461</v>
+        <v>14.65987103987745</v>
       </c>
       <c r="E57">
         <v>0.1623731114634006</v>
       </c>
       <c r="F57">
-        <v>9.139339963346409</v>
+        <v>10.11112880872166</v>
       </c>
       <c r="G57">
-        <v>175.167175686305</v>
+        <v>16.80008109716518</v>
       </c>
       <c r="H57">
-        <v>9.758029892305895</v>
+        <v>14.28265465012229</v>
       </c>
       <c r="Q57">
-        <v>0.02439369230323125</v>
+        <v>0.01192631164314734</v>
       </c>
       <c r="R57">
-        <v>0.07695854703068725</v>
+        <v>0.124457537289689</v>
       </c>
       <c r="S57" t="s">
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.0002666999999973996</v>
+        <v>0.000285200000007535</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2656,37 +2650,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>49.28863327441595</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>60.0142078826376</v>
+        <v>177.1545330976638</v>
       </c>
       <c r="D58">
-        <v>11.73701624669138</v>
+        <v>7.00094719217584</v>
       </c>
       <c r="E58">
         <v>0.1037643175502605</v>
       </c>
       <c r="F58">
-        <v>46.85653627759925</v>
+        <v>9.759796137445029</v>
       </c>
       <c r="G58">
-        <v>65.00159283588823</v>
+        <v>177.8979718060362</v>
       </c>
       <c r="H58">
-        <v>10.08478779138213</v>
+        <v>6.76376418062243</v>
       </c>
       <c r="Q58">
-        <v>0.01134944165124971</v>
+        <v>0.02315487745262031</v>
       </c>
       <c r="R58">
-        <v>0.5847925069476539</v>
+        <v>0.1692577820146828</v>
       </c>
       <c r="S58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T58">
-        <v>0.0003149000000348678</v>
+        <v>0.0002783000000050606</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2694,37 +2688,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>8.930733930597878</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>41.48587791931104</v>
+        <v>15.72293572239151</v>
       </c>
       <c r="D59">
-        <v>9.110610706389128</v>
+        <v>5.765725194620736</v>
       </c>
       <c r="E59">
         <v>0.0131052157346955</v>
       </c>
       <c r="F59">
-        <v>8.899770456035561</v>
+        <v>9.990607099024182</v>
       </c>
       <c r="G59">
-        <v>41.4232731000607</v>
+        <v>15.66757493400323</v>
       </c>
       <c r="H59">
-        <v>9.056127167588135</v>
+        <v>5.714591758714349</v>
       </c>
       <c r="Q59">
-        <v>0.01008940480608991</v>
+        <v>0.01004468702077987</v>
       </c>
       <c r="R59">
-        <v>0.02557044608086972</v>
+        <v>0.02839710137398307</v>
       </c>
       <c r="S59" t="s">
         <v>22</v>
       </c>
       <c r="T59">
-        <v>0.0002583000000413449</v>
+        <v>0.000279399999996599</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2732,37 +2726,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>21.42975123602123</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>81.21706486080083</v>
+        <v>65.7190049440849</v>
       </c>
       <c r="D60">
-        <v>9.960603487677895</v>
+        <v>8.414470990720055</v>
       </c>
       <c r="E60">
         <v>0.07601861461744777</v>
       </c>
       <c r="F60">
-        <v>21.16062308850035</v>
+        <v>9.958454228273391</v>
       </c>
       <c r="G60">
-        <v>81.88718045236598</v>
+        <v>65.81270371623268</v>
       </c>
       <c r="H60">
-        <v>9.66712050534556</v>
+        <v>8.296139360880282</v>
       </c>
       <c r="Q60">
-        <v>0.01030357883179759</v>
+        <v>0.01023541434458435</v>
       </c>
       <c r="R60">
-        <v>0.1303495242926929</v>
+        <v>0.06342859864679089</v>
       </c>
       <c r="S60" t="s">
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.0002726000000166096</v>
+        <v>0.0002942999999930862</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2770,37 +2764,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>46.58158020084914</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>28.41670449626255</v>
+        <v>166.3263208033966</v>
       </c>
       <c r="D61">
-        <v>13.66915076815797</v>
+        <v>4.894446966417504</v>
       </c>
       <c r="E61">
         <v>0.1669283521394677</v>
       </c>
       <c r="F61">
-        <v>44.83666259140266</v>
+        <v>9.832869465106512</v>
       </c>
       <c r="G61">
-        <v>33.19059840084929</v>
+        <v>167.8248657215535</v>
       </c>
       <c r="H61">
-        <v>10.16552835562234</v>
+        <v>4.794384692440965</v>
       </c>
       <c r="Q61">
-        <v>0.01259496060163457</v>
+        <v>0.01501972135121439</v>
       </c>
       <c r="R61">
-        <v>0.8643018200035071</v>
+        <v>0.1581609023939494</v>
       </c>
       <c r="S61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T61">
-        <v>0.000258900000005724</v>
+        <v>0.000289999999992574</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2808,37 +2802,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>18.53929985209784</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>33.65024694153804</v>
+        <v>54.15719940839138</v>
       </c>
       <c r="D62">
-        <v>8.231826769682193</v>
+        <v>5.243349796102536</v>
       </c>
       <c r="E62">
         <v>0.0921770993213077</v>
       </c>
       <c r="F62">
-        <v>18.49914134487454</v>
+        <v>9.99045472839345</v>
       </c>
       <c r="G62">
-        <v>34.42636873783798</v>
+        <v>54.56538259703253</v>
       </c>
       <c r="H62">
-        <v>7.784915779443124</v>
+        <v>5.119475229886785</v>
       </c>
       <c r="Q62">
-        <v>0.01172056607433274</v>
+        <v>0.01172519015892201</v>
       </c>
       <c r="R62">
-        <v>0.1817840874297595</v>
+        <v>0.09390243687352118</v>
       </c>
       <c r="S62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T62">
-        <v>0.0002682000000504559</v>
+        <v>0.0002848000000028605</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2846,37 +2840,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>42.10112641609768</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>32.64295184949596</v>
+        <v>148.4045056643907</v>
       </c>
       <c r="D63">
-        <v>13.77326768207053</v>
+        <v>5.176196789966397</v>
       </c>
       <c r="E63">
         <v>0.04314955515597899</v>
       </c>
       <c r="F63">
-        <v>41.03977359140066</v>
+        <v>9.950285875469536</v>
       </c>
       <c r="G63">
-        <v>33.5924949745745</v>
+        <v>148.7171957787104</v>
       </c>
       <c r="H63">
-        <v>12.69058157253258</v>
+        <v>5.132045266790433</v>
       </c>
       <c r="Q63">
-        <v>0.01048346911659026</v>
+        <v>0.010188746270821</v>
       </c>
       <c r="R63">
-        <v>0.2730614481718111</v>
+        <v>0.04821463577860757</v>
       </c>
       <c r="S63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T63">
-        <v>0.0002751000000102977</v>
+        <v>0.001566699999997923</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2884,37 +2878,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>6.518961969044375</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>88.03935143380524</v>
+        <v>6.075847876177498</v>
       </c>
       <c r="D64">
-        <v>13.46085097280883</v>
+        <v>8.869290095587015</v>
       </c>
       <c r="E64">
         <v>0.001232542630374539</v>
       </c>
       <c r="F64">
-        <v>6.435384956694441</v>
+        <v>9.938589433031771</v>
       </c>
       <c r="G64">
-        <v>87.90944582579355</v>
+        <v>5.997026775785356</v>
       </c>
       <c r="H64">
-        <v>13.25074031318947</v>
+        <v>8.876359645541163</v>
       </c>
       <c r="Q64">
-        <v>0.009644108503517939</v>
+        <v>0.009595428434338148</v>
       </c>
       <c r="R64">
-        <v>0.06394598868182753</v>
+        <v>0.01450646222975766</v>
       </c>
       <c r="S64" t="s">
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.0002504000000271844</v>
+        <v>0.0002861999999907994</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2922,37 +2916,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>29.92734601252639</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>71.32462086696601</v>
+        <v>99.70938405010556</v>
       </c>
       <c r="D65">
-        <v>5.481267725800767</v>
+        <v>7.7549747244644</v>
       </c>
       <c r="E65">
         <v>0.2138978653518085</v>
       </c>
       <c r="F65">
-        <v>29.28789369780284</v>
+        <v>9.789398679853374</v>
       </c>
       <c r="G65">
-        <v>87.20719959800246</v>
+        <v>100.16120420665</v>
       </c>
       <c r="H65">
-        <v>4.5523975543727</v>
+        <v>7.400202606208205</v>
       </c>
       <c r="Q65">
-        <v>0.0147771702832215</v>
+        <v>0.01391187714798701</v>
       </c>
       <c r="R65">
-        <v>0.9098069396856572</v>
+        <v>0.214239395483404</v>
       </c>
       <c r="S65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T65">
-        <v>0.0002669999999511674</v>
+        <v>0.0002741000000128224</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2960,37 +2954,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>22.05943364451965</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>102.0776700923305</v>
+        <v>68.23773457807862</v>
       </c>
       <c r="D66">
-        <v>10.95592512657122</v>
+        <v>9.805178006155369</v>
       </c>
       <c r="E66">
         <v>359.8899677060768</v>
       </c>
       <c r="F66">
-        <v>22.15981265851585</v>
+        <v>9.979384993906811</v>
       </c>
       <c r="G66">
-        <v>101.1062763398852</v>
+        <v>68.01304911856474</v>
       </c>
       <c r="H66">
-        <v>11.14534841006301</v>
+        <v>9.89034246602843</v>
       </c>
       <c r="Q66">
-        <v>0.01251391464406297</v>
+        <v>0.01238207015455763</v>
       </c>
       <c r="R66">
-        <v>0.1026008359028049</v>
+        <v>0.05827519877231926</v>
       </c>
       <c r="S66" t="s">
         <v>22</v>
       </c>
       <c r="T66">
-        <v>0.0002678999999830012</v>
+        <v>0.0002812999999974863</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2998,37 +2992,37 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>14.83902725662427</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>5.6524895104645</v>
+        <v>39.35610902649709</v>
       </c>
       <c r="D67">
-        <v>7.871252773397034</v>
+        <v>3.376832634030967</v>
       </c>
       <c r="E67">
         <v>0.08336648231326493</v>
       </c>
       <c r="F67">
-        <v>15.07181571348116</v>
+        <v>10.03079982715694</v>
       </c>
       <c r="G67">
-        <v>5.561076202859851</v>
+        <v>39.98521047626932</v>
       </c>
       <c r="H67">
-        <v>7.349797832762917</v>
+        <v>3.251460239702545</v>
       </c>
       <c r="Q67">
-        <v>0.01016387025842686</v>
+        <v>0.0101039985460177</v>
       </c>
       <c r="R67">
-        <v>0.2148929826271294</v>
+        <v>0.1345205011480773</v>
       </c>
       <c r="S67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T67">
-        <v>0.0002572000000213848</v>
+        <v>0.0002786999999955242</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3036,37 +3030,37 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>11.94294101590741</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>24.06592092601187</v>
+        <v>27.77176406362965</v>
       </c>
       <c r="D68">
-        <v>8.626854661768876</v>
+        <v>4.604394728400791</v>
       </c>
       <c r="E68">
         <v>359.8584385635936</v>
       </c>
       <c r="F68">
-        <v>11.85844222584003</v>
+        <v>9.933712262887347</v>
       </c>
       <c r="G68">
-        <v>23.85549364313112</v>
+        <v>27.39756586278586</v>
       </c>
       <c r="H68">
-        <v>8.930711317018959</v>
+        <v>4.825281097975239</v>
       </c>
       <c r="Q68">
-        <v>0.01225951653420404</v>
+        <v>0.01249693694980099</v>
       </c>
       <c r="R68">
-        <v>0.1404985122374119</v>
+        <v>0.1757256298276193</v>
       </c>
       <c r="S68" t="s">
         <v>22</v>
       </c>
       <c r="T68">
-        <v>0.0002588000000400825</v>
+        <v>0.0002942999999930862</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3074,37 +3068,37 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>29.56331434707404</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>154.5941899064446</v>
+        <v>98.25325738829615</v>
       </c>
       <c r="D69">
-        <v>11.85892586566579</v>
+        <v>13.30627932709631</v>
       </c>
       <c r="E69">
         <v>359.887147784778</v>
       </c>
       <c r="F69">
-        <v>29.9093304972923</v>
+        <v>10.04738099157064</v>
       </c>
       <c r="G69">
-        <v>153.0401746821348</v>
+        <v>98.18841923635947</v>
       </c>
       <c r="H69">
-        <v>11.84710906122501</v>
+        <v>13.44968563376969</v>
       </c>
       <c r="Q69">
-        <v>0.01173264122926986</v>
+        <v>0.01153232657779634</v>
       </c>
       <c r="R69">
-        <v>0.08906162273952428</v>
+        <v>0.06467419145443731</v>
       </c>
       <c r="S69" t="s">
         <v>22</v>
       </c>
       <c r="T69">
-        <v>0.0002767999999946369</v>
+        <v>0.0002741999999926747</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3112,37 +3106,37 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>16.67171614767995</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>7.804989209142046</v>
+        <v>46.68686459071981</v>
       </c>
       <c r="D70">
-        <v>10.82030342126604</v>
+        <v>3.520332613942803</v>
       </c>
       <c r="E70">
         <v>0.0944476364371679</v>
       </c>
       <c r="F70">
-        <v>16.86630327960859</v>
+        <v>9.998459292026459</v>
       </c>
       <c r="G70">
-        <v>7.793479265870277</v>
+        <v>47.40188158087127</v>
       </c>
       <c r="H70">
-        <v>10.0278385516388</v>
+        <v>3.37588609724514</v>
       </c>
       <c r="Q70">
-        <v>0.01112161474842555</v>
+        <v>0.01115915817565506</v>
       </c>
       <c r="R70">
-        <v>0.2264492072878052</v>
+        <v>0.1443242810684717</v>
       </c>
       <c r="S70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T70">
-        <v>0.0002630999999837513</v>
+        <v>0.0002874000000048227</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3150,37 +3144,37 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>18.33121227525951</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>145.6321888211988</v>
+        <v>53.32484910103803</v>
       </c>
       <c r="D71">
-        <v>8.502525252234115</v>
+        <v>12.70881258807992</v>
       </c>
       <c r="E71">
         <v>359.9084492901451</v>
       </c>
       <c r="F71">
-        <v>18.49959057270463</v>
+        <v>9.954812100047191</v>
       </c>
       <c r="G71">
-        <v>144.7374323125408</v>
+        <v>53.20425037390858</v>
       </c>
       <c r="H71">
-        <v>8.594584995363974</v>
+        <v>12.74916917907511</v>
       </c>
       <c r="Q71">
-        <v>0.01158398932488834</v>
+        <v>0.01135668734300574</v>
       </c>
       <c r="R71">
-        <v>0.08763383261926332</v>
+        <v>0.04137266442486679</v>
       </c>
       <c r="S71" t="s">
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.0004059999999981301</v>
+        <v>0.0002912000000065973</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3188,37 +3182,37 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>46.73662423785314</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>157.0367329936588</v>
+        <v>166.9464969514126</v>
       </c>
       <c r="D72">
-        <v>10.84631272595553</v>
+        <v>13.46911553291059</v>
       </c>
       <c r="E72">
         <v>359.9149002591698</v>
       </c>
       <c r="F72">
-        <v>46.11592925533274</v>
+        <v>9.981945277051754</v>
       </c>
       <c r="G72">
-        <v>154.4147439646214</v>
+        <v>166.866557718598</v>
       </c>
       <c r="H72">
-        <v>10.06658673869171</v>
+        <v>13.44980843986291</v>
       </c>
       <c r="Q72">
-        <v>0.01120489092768872</v>
+        <v>0.01301324555041809</v>
       </c>
       <c r="R72">
-        <v>0.2886805996909475</v>
+        <v>0.02986612242744836</v>
       </c>
       <c r="S72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T72">
-        <v>0.0002650999999787018</v>
+        <v>0.0002731000000011363</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3226,37 +3220,37 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>13.35088736683427</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>69.5878745475726</v>
+        <v>33.40354946733707</v>
       </c>
       <c r="D73">
-        <v>13.3189619863717</v>
+        <v>7.63919163650484</v>
       </c>
       <c r="E73">
         <v>0.04306031497297426</v>
       </c>
       <c r="F73">
-        <v>13.20667926635331</v>
+        <v>9.985358923943844</v>
       </c>
       <c r="G73">
-        <v>69.62226315954068</v>
+        <v>33.47495703261833</v>
       </c>
       <c r="H73">
-        <v>13.0728077481661</v>
+        <v>7.516080301889667</v>
       </c>
       <c r="Q73">
-        <v>0.009403564791105601</v>
+        <v>0.009410849301884483</v>
       </c>
       <c r="R73">
-        <v>0.07583082600482975</v>
+        <v>0.05527983269000523</v>
       </c>
       <c r="S73" t="s">
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.0002618999999981497</v>
+        <v>0.0002955000000071095</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3264,37 +3258,37 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>9.803219101488983</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>123.1816739901637</v>
+        <v>19.21287640595593</v>
       </c>
       <c r="D74">
-        <v>10.34962617391087</v>
+        <v>11.21211159934425</v>
       </c>
       <c r="E74">
         <v>359.9681454500934</v>
       </c>
       <c r="F74">
-        <v>9.809125513271631</v>
+        <v>9.944348591964593</v>
       </c>
       <c r="G74">
-        <v>123.1172227904312</v>
+        <v>19.13851138777966</v>
       </c>
       <c r="H74">
-        <v>10.37101389886997</v>
+        <v>11.25252465808486</v>
       </c>
       <c r="Q74">
-        <v>0.01113073272667704</v>
+        <v>0.01110552345745337</v>
       </c>
       <c r="R74">
-        <v>0.01574538316170023</v>
+        <v>0.02810902518360567</v>
       </c>
       <c r="S74" t="s">
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.000392900000008467</v>
+        <v>0.0002774999999957117</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3302,37 +3296,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>33.92104621037356</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>96.95176757441044</v>
+        <v>115.6841848414942</v>
       </c>
       <c r="D75">
-        <v>10.1189798245863</v>
+        <v>9.463451171627362</v>
       </c>
       <c r="E75">
         <v>359.942318694869</v>
       </c>
       <c r="F75">
-        <v>33.77848751086411</v>
+        <v>10.03169150882609</v>
       </c>
       <c r="G75">
-        <v>95.51430789598864</v>
+        <v>115.5685514669311</v>
       </c>
       <c r="H75">
-        <v>10.16518531754356</v>
+        <v>9.530442178949516</v>
       </c>
       <c r="Q75">
-        <v>0.00934123538469887</v>
+        <v>0.009276600414519078</v>
       </c>
       <c r="R75">
-        <v>0.06877680649466443</v>
+        <v>0.04029037708171823</v>
       </c>
       <c r="S75" t="s">
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.0002638999999931002</v>
+        <v>0.0002771999999993113</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3340,37 +3334,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>14.09910320436086</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>141.218568739901</v>
+        <v>36.39641281744344</v>
       </c>
       <c r="D76">
-        <v>13.60537239237031</v>
+        <v>12.41457124932673</v>
       </c>
       <c r="E76">
         <v>359.9391654506192</v>
       </c>
       <c r="F76">
-        <v>14.27414932009843</v>
+        <v>9.981231763001976</v>
       </c>
       <c r="G76">
-        <v>141.090148619045</v>
+        <v>36.36813455684481</v>
       </c>
       <c r="H76">
-        <v>13.83811185847865</v>
+        <v>12.46846924035342</v>
       </c>
       <c r="Q76">
-        <v>0.009395633287624021</v>
+        <v>0.009403204254133981</v>
       </c>
       <c r="R76">
-        <v>0.08187758293274106</v>
+        <v>0.02989740952822297</v>
       </c>
       <c r="S76" t="s">
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.0002486000000203603</v>
+        <v>0.0003324999999989586</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3378,37 +3372,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>30.60230990536605</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>11.87356096609964</v>
+        <v>102.4092396214642</v>
       </c>
       <c r="D77">
-        <v>13.88110669900257</v>
+        <v>3.791570731073309</v>
       </c>
       <c r="E77">
         <v>0.07095021339761047</v>
       </c>
       <c r="F77">
-        <v>30.41163079990592</v>
+        <v>9.94722670817479</v>
       </c>
       <c r="G77">
-        <v>12.17414612194459</v>
+        <v>103.0568771802157</v>
       </c>
       <c r="H77">
-        <v>12.45274111778245</v>
+        <v>3.718952719837901</v>
       </c>
       <c r="Q77">
-        <v>0.009504632413909923</v>
+        <v>0.009496986886778972</v>
       </c>
       <c r="R77">
-        <v>0.292886916831373</v>
+        <v>0.0906052598396839</v>
       </c>
       <c r="S77" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T77">
-        <v>0.0003025000000320688</v>
+        <v>0.0002836999999971113</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3416,37 +3410,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>18.98734098903599</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>147.417699729393</v>
+        <v>55.94936395614395</v>
       </c>
       <c r="D78">
-        <v>8.347526245715251</v>
+        <v>12.8278466486262</v>
       </c>
       <c r="E78">
         <v>359.9059698689281</v>
       </c>
       <c r="F78">
-        <v>19.20365250822387</v>
+        <v>10.01022680827043</v>
       </c>
       <c r="G78">
-        <v>146.3705073371431</v>
+        <v>55.88837251181035</v>
       </c>
       <c r="H78">
-        <v>8.446157081914443</v>
+        <v>12.94933483392949</v>
       </c>
       <c r="Q78">
-        <v>0.01043664425808875</v>
+        <v>0.01020626607161484</v>
       </c>
       <c r="R78">
-        <v>0.09821362944589196</v>
+        <v>0.05041343909672495</v>
       </c>
       <c r="S78" t="s">
         <v>22</v>
       </c>
       <c r="T78">
-        <v>0.0002632999999718777</v>
+        <v>0.0003025000000036471</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3454,37 +3448,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>46.35990643096318</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>115.595207986294</v>
+        <v>165.4396257238527</v>
       </c>
       <c r="D79">
-        <v>12.53712229729177</v>
+        <v>10.70634719908626</v>
       </c>
       <c r="E79">
         <v>359.9775555147925</v>
       </c>
       <c r="F79">
-        <v>45.62199709980554</v>
+        <v>10.01106209945794</v>
       </c>
       <c r="G79">
-        <v>115.1678285899001</v>
+        <v>165.3996684311751</v>
       </c>
       <c r="H79">
-        <v>12.3006849701674</v>
+        <v>10.72450426051416</v>
       </c>
       <c r="Q79">
-        <v>0.010510042627565</v>
+        <v>0.01043850600113499</v>
       </c>
       <c r="R79">
-        <v>0.08997134052637849</v>
+        <v>0.01269352590710024</v>
       </c>
       <c r="S79" t="s">
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.0002704999999991742</v>
+        <v>0.0002942999999930862</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3492,37 +3486,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>7.168155237510696</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>122.5733424961892</v>
+        <v>8.672620950042782</v>
       </c>
       <c r="D80">
-        <v>12.98696067903802</v>
+        <v>11.17155616641261</v>
       </c>
       <c r="E80">
         <v>359.9877953862775</v>
       </c>
       <c r="F80">
-        <v>7.076023386992135</v>
+        <v>9.960291537418222</v>
       </c>
       <c r="G80">
-        <v>122.5280093308663</v>
+        <v>8.653149524762407</v>
       </c>
       <c r="H80">
-        <v>12.77831194961914</v>
+        <v>11.16773950483344</v>
       </c>
       <c r="Q80">
-        <v>0.01115833232001874</v>
+        <v>0.01087687156949075</v>
       </c>
       <c r="R80">
-        <v>0.06577108707819972</v>
+        <v>0.01101011865039896</v>
       </c>
       <c r="S80" t="s">
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.0002640000000155851</v>
+        <v>0.0006077999999973827</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3530,37 +3524,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>27.53006568531715</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>84.25213667066072</v>
+        <v>90.1202627412686</v>
       </c>
       <c r="D81">
-        <v>10.00782525642232</v>
+        <v>8.616809111377382</v>
       </c>
       <c r="E81">
         <v>0.3316358820770021</v>
       </c>
       <c r="F81">
-        <v>26.21608016744119</v>
+        <v>9.762194050365853</v>
       </c>
       <c r="G81">
-        <v>89.80225699829059</v>
+        <v>90.58333756354487</v>
       </c>
       <c r="H81">
-        <v>8.752600922762374</v>
+        <v>8.13224296258476</v>
       </c>
       <c r="Q81">
-        <v>0.01707433076349611</v>
+        <v>0.01643491680164045</v>
       </c>
       <c r="R81">
-        <v>0.6147712085525295</v>
+        <v>0.2747076336407581</v>
       </c>
       <c r="S81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T81">
-        <v>0.0002673999999842636</v>
+        <v>0.0002865000000014106</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3568,37 +3562,37 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>28.48620724251147</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>125.8931460626395</v>
+        <v>93.94482897004586</v>
       </c>
       <c r="D82">
-        <v>7.698689710729503</v>
+        <v>11.39287640417597</v>
       </c>
       <c r="E82">
         <v>359.8100147063852</v>
       </c>
       <c r="F82">
-        <v>28.87433613000322</v>
+        <v>10.136740556037</v>
       </c>
       <c r="G82">
-        <v>120.6533492562494</v>
+        <v>93.80700517664629</v>
       </c>
       <c r="H82">
-        <v>7.779106986535275</v>
+        <v>11.70729865570177</v>
       </c>
       <c r="Q82">
-        <v>0.01243861621714598</v>
+        <v>0.01191717219296936</v>
       </c>
       <c r="R82">
-        <v>0.2273137781641918</v>
+        <v>0.1427273726558544</v>
       </c>
       <c r="S82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T82">
-        <v>0.000270099999966078</v>
+        <v>0.0002771000000052481</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3606,37 +3600,37 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>20.99386030123564</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>61.35279780407429</v>
+        <v>63.97544120494257</v>
       </c>
       <c r="D83">
-        <v>14.3310644228157</v>
+        <v>7.09018652027162</v>
       </c>
       <c r="E83">
         <v>0.1359900342218655</v>
       </c>
       <c r="F83">
-        <v>20.52561259587988</v>
+        <v>9.933765096068596</v>
       </c>
       <c r="G83">
-        <v>61.81653619323998</v>
+        <v>64.22951834024407</v>
       </c>
       <c r="H83">
-        <v>13.62571136664302</v>
+        <v>6.892025400409477</v>
       </c>
       <c r="Q83">
-        <v>0.01082719527537246</v>
+        <v>0.01085017523320048</v>
       </c>
       <c r="R83">
-        <v>0.2058105264103574</v>
+        <v>0.121260204967328</v>
       </c>
       <c r="S83" t="s">
         <v>22</v>
       </c>
       <c r="T83">
-        <v>0.0002685999999698652</v>
+        <v>0.0002838000000053853</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3644,37 +3638,37 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>17.3851551410602</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>115.0615369665485</v>
+        <v>49.54062056424078</v>
       </c>
       <c r="D84">
-        <v>11.2389921233538</v>
+        <v>10.67076913110323</v>
       </c>
       <c r="E84">
         <v>359.9159349597244</v>
       </c>
       <c r="F84">
-        <v>17.54114028346572</v>
+        <v>9.962131818869471</v>
       </c>
       <c r="G84">
-        <v>114.5898204789383</v>
+        <v>49.33218726659358</v>
       </c>
       <c r="H84">
-        <v>11.43039552639937</v>
+        <v>10.7636638853355</v>
       </c>
       <c r="Q84">
-        <v>0.00948701486578515</v>
+        <v>0.009421156352979207</v>
       </c>
       <c r="R84">
-        <v>0.0903387847804635</v>
+        <v>0.05430229355164269</v>
       </c>
       <c r="S84" t="s">
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.0002610000000231594</v>
+        <v>0.0002824000000032356</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3682,37 +3676,37 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>16.5669092197313</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>123.081764952793</v>
+        <v>46.26763687892519</v>
       </c>
       <c r="D85">
-        <v>11.63641757569115</v>
+        <v>11.20545099685287</v>
       </c>
       <c r="E85">
         <v>359.9150687113963</v>
       </c>
       <c r="F85">
-        <v>16.70430653055282</v>
+        <v>9.978608586035369</v>
       </c>
       <c r="G85">
-        <v>122.7797122450786</v>
+        <v>46.18597280617031</v>
       </c>
       <c r="H85">
-        <v>11.80442904955481</v>
+        <v>11.27700158998545</v>
       </c>
       <c r="Q85">
-        <v>0.01028367160975716</v>
+        <v>0.0102133120865209</v>
       </c>
       <c r="R85">
-        <v>0.07870265232121562</v>
+        <v>0.04280300487047013</v>
       </c>
       <c r="S85" t="s">
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.0002643000000261964</v>
+        <v>0.0002903000000031852</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3720,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>7.071844713416848</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>66.64361690080786</v>
+        <v>8.287378853667391</v>
       </c>
       <c r="D86">
-        <v>7.423182674914047</v>
+        <v>7.442907793387191</v>
       </c>
       <c r="E86">
         <v>0.01316122019755319</v>
       </c>
       <c r="F86">
-        <v>7.049459074301688</v>
+        <v>10.02050293025006</v>
       </c>
       <c r="G86">
-        <v>66.61541575763408</v>
+        <v>8.256308791496862</v>
       </c>
       <c r="H86">
-        <v>7.374867704019977</v>
+        <v>7.33218023329528</v>
       </c>
       <c r="Q86">
-        <v>0.01017132027087415</v>
+        <v>0.01012726569310826</v>
       </c>
       <c r="R86">
-        <v>0.02554274929506303</v>
+        <v>0.04467651711440026</v>
       </c>
       <c r="S86" t="s">
         <v>22</v>
       </c>
       <c r="T86">
-        <v>0.000250399999970341</v>
+        <v>0.0002815999999938867</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -3758,37 +3752,37 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>32.91682165489652</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>91.61155235617326</v>
+        <v>111.6672866195861</v>
       </c>
       <c r="D87">
-        <v>7.982448417587287</v>
+        <v>9.107436823744884</v>
       </c>
       <c r="E87">
         <v>359.9823149278921</v>
       </c>
       <c r="F87">
-        <v>32.46422583638263</v>
+        <v>9.959967306763327</v>
       </c>
       <c r="G87">
-        <v>90.71213897589745</v>
+        <v>111.5686500197445</v>
       </c>
       <c r="H87">
-        <v>7.877547677061143</v>
+        <v>9.069005982025175</v>
       </c>
       <c r="Q87">
-        <v>0.009887638101598633</v>
+        <v>0.00982193156875045</v>
       </c>
       <c r="R87">
-        <v>0.08267629901961429</v>
+        <v>0.02410860086986303</v>
       </c>
       <c r="S87" t="s">
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.0002620999999862761</v>
+        <v>0.0002861999999907994</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3796,37 +3790,37 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>14.11731291330007</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>37.27675873097517</v>
+        <v>36.46925165320029</v>
       </c>
       <c r="D88">
-        <v>6.526377433002459</v>
+        <v>5.485117248731678</v>
       </c>
       <c r="E88">
         <v>0.05962857189673432</v>
       </c>
       <c r="F88">
-        <v>14.10162696635427</v>
+        <v>10.00452367031073</v>
       </c>
       <c r="G88">
-        <v>37.62123638937005</v>
+        <v>36.62931709714181</v>
       </c>
       <c r="H88">
-        <v>6.345007664456461</v>
+        <v>5.383425303503712</v>
       </c>
       <c r="Q88">
-        <v>0.01057836654852374</v>
+        <v>0.01057785521590099</v>
       </c>
       <c r="R88">
-        <v>0.09484660785057156</v>
+        <v>0.06601175397044247</v>
       </c>
       <c r="S88" t="s">
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.0002711999999860382</v>
+        <v>0.0003309000000086826</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3834,37 +3828,37 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>34.53188833548306</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>171.8822478443809</v>
+        <v>118.1275533419322</v>
       </c>
       <c r="D89">
-        <v>14.70876034993816</v>
+        <v>14.45881652295873</v>
       </c>
       <c r="E89">
         <v>359.9627624479147</v>
       </c>
       <c r="F89">
-        <v>34.49220019425253</v>
+        <v>9.955684762439018</v>
       </c>
       <c r="G89">
-        <v>171.6131373556411</v>
+        <v>118.0898638821957</v>
       </c>
       <c r="H89">
-        <v>14.56862240705492</v>
+        <v>14.38837208297065</v>
       </c>
       <c r="Q89">
-        <v>0.009796203738135294</v>
+        <v>0.009973776976695844</v>
       </c>
       <c r="R89">
-        <v>0.04177147008681614</v>
+        <v>0.02981768519694192</v>
       </c>
       <c r="S89" t="s">
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.000263599999982489</v>
+        <v>0.0002757000000030985</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3872,37 +3866,37 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>34.13979722088605</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>91.28694387835442</v>
+        <v>116.5591888835442</v>
       </c>
       <c r="D90">
-        <v>10.28341380152239</v>
+        <v>9.085796258556961</v>
       </c>
       <c r="E90">
         <v>359.9893115695848</v>
       </c>
       <c r="F90">
-        <v>34.04911985179848</v>
+        <v>10.0237835563007</v>
       </c>
       <c r="G90">
-        <v>91.72127801057472</v>
+        <v>116.5913578111128</v>
       </c>
       <c r="H90">
-        <v>10.22200878694565</v>
+        <v>9.111490605100521</v>
       </c>
       <c r="Q90">
-        <v>0.01017321198041379</v>
+        <v>0.0100706563836955</v>
       </c>
       <c r="R90">
-        <v>0.03288539725623173</v>
+        <v>0.01451017834818218</v>
       </c>
       <c r="S90" t="s">
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.0002623999999968873</v>
+        <v>0.0002840999999875748</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3910,37 +3904,37 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>27.48624442109753</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>46.06868417610064</v>
+        <v>89.94497768439012</v>
       </c>
       <c r="D91">
-        <v>7.581006309885745</v>
+        <v>6.071245611740043</v>
       </c>
       <c r="E91">
         <v>0.169373002654711</v>
       </c>
       <c r="F91">
-        <v>27.05275170632155</v>
+        <v>9.882426105314115</v>
       </c>
       <c r="G91">
-        <v>50.74546494177726</v>
+        <v>90.50391609006154</v>
       </c>
       <c r="H91">
-        <v>6.432504708627206</v>
+        <v>5.85578024656169</v>
       </c>
       <c r="Q91">
-        <v>0.01289128157127751</v>
+        <v>0.01274476263169919</v>
       </c>
       <c r="R91">
-        <v>0.56429132631638</v>
+        <v>0.1646360662880815</v>
       </c>
       <c r="S91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T91">
-        <v>0.0002714999999966494</v>
+        <v>0.0002838999999994485</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3948,37 +3942,37 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>11.88743894447661</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>28.38341898169331</v>
+        <v>27.54975577790644</v>
       </c>
       <c r="D92">
-        <v>14.85491114183153</v>
+        <v>4.892227932112887</v>
       </c>
       <c r="E92">
         <v>0.0224486668199389</v>
       </c>
       <c r="F92">
-        <v>11.92914377541943</v>
+        <v>10.03813844582601</v>
       </c>
       <c r="G92">
-        <v>28.42047713444176</v>
+        <v>27.67501467044891</v>
       </c>
       <c r="H92">
-        <v>14.84732458184358</v>
+        <v>4.872517221512371</v>
       </c>
       <c r="Q92">
-        <v>0.01048152504750845</v>
+        <v>0.0104479731412413</v>
       </c>
       <c r="R92">
-        <v>0.01366258166179914</v>
+        <v>0.0251725079530062</v>
       </c>
       <c r="S92" t="s">
         <v>22</v>
       </c>
       <c r="T92">
-        <v>0.0003054999999676511</v>
+        <v>0.0002992000000006101</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -3986,37 +3980,37 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>14.04516182530883</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>59.22368396859275</v>
+        <v>36.1806473012353</v>
       </c>
       <c r="D93">
-        <v>7.964996887010721</v>
+        <v>6.948245597906183</v>
       </c>
       <c r="E93">
         <v>0.06061210177347404</v>
       </c>
       <c r="F93">
-        <v>13.92882953643679</v>
+        <v>9.973337664680898</v>
       </c>
       <c r="G93">
-        <v>59.44308600307409</v>
+        <v>36.22738395302908</v>
       </c>
       <c r="H93">
-        <v>7.771392524822827</v>
+        <v>6.814151005418287</v>
       </c>
       <c r="Q93">
-        <v>0.009409107354831876</v>
+        <v>0.009398646311564255</v>
       </c>
       <c r="R93">
-        <v>0.09520987049792792</v>
+        <v>0.06901280846228736</v>
       </c>
       <c r="S93" t="s">
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.0002589999999713655</v>
+        <v>0.0003049999999973352</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -4024,37 +4018,37 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>44.86462247469316</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>141.9446820246704</v>
+        <v>159.4584898987726</v>
       </c>
       <c r="D94">
-        <v>9.247281314751076</v>
+        <v>12.4629788016447</v>
       </c>
       <c r="E94">
         <v>359.9769700758218</v>
       </c>
       <c r="F94">
-        <v>44.21157809983013</v>
+        <v>9.961768342486511</v>
       </c>
       <c r="G94">
-        <v>141.695183461299</v>
+        <v>159.4520935106613</v>
       </c>
       <c r="H94">
-        <v>9.057853621065183</v>
+        <v>12.40719068604815</v>
       </c>
       <c r="Q94">
-        <v>0.01008970448640309</v>
+        <v>0.009994093821890456</v>
       </c>
       <c r="R94">
-        <v>0.08746648249468657</v>
+        <v>0.02348010043325873</v>
       </c>
       <c r="S94" t="s">
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.0002650999999787018</v>
+        <v>0.0002726000000023987</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -4062,37 +4056,37 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>32.28594519994139</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>118.3520823512068</v>
+        <v>109.1437807997656</v>
       </c>
       <c r="D95">
-        <v>8.0724100934357</v>
+        <v>10.89013882341379</v>
       </c>
       <c r="E95">
         <v>359.8369801919656</v>
       </c>
       <c r="F95">
-        <v>32.69718606605593</v>
+        <v>10.20263830285906</v>
       </c>
       <c r="G95">
-        <v>113.2559752497322</v>
+        <v>109.0339474698354</v>
       </c>
       <c r="H95">
-        <v>8.218762468096985</v>
+        <v>11.25574605906966</v>
       </c>
       <c r="Q95">
-        <v>0.0122495507651784</v>
+        <v>0.01181742900478501</v>
       </c>
       <c r="R95">
-        <v>0.2347115957855301</v>
+        <v>0.1612046380822319</v>
       </c>
       <c r="S95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T95">
-        <v>0.0002592999999819767</v>
+        <v>0.0002934999999979482</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -4100,37 +4094,37 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>37.37236038097813</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>109.2998116119581</v>
+        <v>129.4894415239125</v>
       </c>
       <c r="D96">
-        <v>11.89861614578764</v>
+        <v>10.28665410746387</v>
       </c>
       <c r="E96">
         <v>359.9256546784487</v>
       </c>
       <c r="F96">
-        <v>37.55196717096139</v>
+        <v>10.15382470674307</v>
       </c>
       <c r="G96">
-        <v>107.864065900466</v>
+        <v>129.3860603060104</v>
       </c>
       <c r="H96">
-        <v>12.03312672550986</v>
+        <v>10.52169733165705</v>
       </c>
       <c r="Q96">
-        <v>0.009955198518159592</v>
+        <v>0.009794585059531454</v>
       </c>
       <c r="R96">
-        <v>0.09075157199779457</v>
+        <v>0.1039316539462591</v>
       </c>
       <c r="S96" t="s">
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.0002585999999951127</v>
+        <v>0.000454500000003577</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4138,37 +4132,37 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>15.29615694006055</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>34.32384335235293</v>
+        <v>41.18462776024221</v>
       </c>
       <c r="D97">
-        <v>13.86359670982399</v>
+        <v>5.288256223490196</v>
       </c>
       <c r="E97">
         <v>0.06642888995524825</v>
       </c>
       <c r="F97">
-        <v>15.17426901221163</v>
+        <v>9.983631546038861</v>
       </c>
       <c r="G97">
-        <v>34.31517421264961</v>
+        <v>41.2719776948508</v>
       </c>
       <c r="H97">
-        <v>13.56291826309987</v>
+        <v>5.189088204719686</v>
       </c>
       <c r="Q97">
-        <v>0.01038890909390773</v>
+        <v>0.01045503006217681</v>
       </c>
       <c r="R97">
-        <v>0.08432569752744246</v>
+        <v>0.06840029364914971</v>
       </c>
       <c r="S97" t="s">
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.0002693000000135726</v>
+        <v>0.0002836999999971113</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4176,37 +4170,37 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>14.6609100057572</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>163.7104268414994</v>
+        <v>38.64364002302879</v>
       </c>
       <c r="D98">
-        <v>13.17235373163457</v>
+        <v>13.91402845609996</v>
       </c>
       <c r="E98">
         <v>359.9930152225234</v>
       </c>
       <c r="F98">
-        <v>14.56532072935041</v>
+        <v>9.974083490304535</v>
       </c>
       <c r="G98">
-        <v>163.7431051001692</v>
+        <v>38.62359232642405</v>
       </c>
       <c r="H98">
-        <v>13.06603106284648</v>
+        <v>13.86712986637665</v>
       </c>
       <c r="Q98">
-        <v>0.01033777848255337</v>
+        <v>0.01032222734882452</v>
       </c>
       <c r="R98">
-        <v>0.03360896633000586</v>
+        <v>0.01499329885174717</v>
       </c>
       <c r="S98" t="s">
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.0002544999999827269</v>
+        <v>0.0002884000000022979</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4214,37 +4208,37 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>42.66248559190357</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>174.6424533492594</v>
+        <v>150.6499423676143</v>
       </c>
       <c r="D99">
-        <v>9.471537852615114</v>
+        <v>14.64283022328396</v>
       </c>
       <c r="E99">
         <v>0.1751187751292006</v>
       </c>
       <c r="F99">
-        <v>43.51568027452534</v>
+        <v>9.924279719784563</v>
       </c>
       <c r="G99">
-        <v>178.1055191305297</v>
+        <v>150.8312869626536</v>
       </c>
       <c r="H99">
-        <v>13.47643408591261</v>
+        <v>14.46811433454693</v>
       </c>
       <c r="Q99">
-        <v>0.01355642649752813</v>
+        <v>0.01627285557533269</v>
       </c>
       <c r="R99">
-        <v>1.22077463263579</v>
+        <v>0.0907629521793729</v>
       </c>
       <c r="S99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T99">
-        <v>0.0002599000000031992</v>
+        <v>0.000282599999991362</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4252,37 +4246,37 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>37.95202616309834</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>102.0940227811593</v>
+        <v>131.8081046523934</v>
       </c>
       <c r="D100">
-        <v>8.012238900499931</v>
+        <v>9.806268185410616</v>
       </c>
       <c r="E100">
         <v>359.9526282918734</v>
       </c>
       <c r="F100">
-        <v>37.43331882139612</v>
+        <v>9.996899019733082</v>
       </c>
       <c r="G100">
-        <v>100.5446849905147</v>
+        <v>131.7284617639773</v>
       </c>
       <c r="H100">
-        <v>7.916601723903786</v>
+        <v>9.81615314732635</v>
       </c>
       <c r="Q100">
-        <v>0.01140723296949436</v>
+        <v>0.01132744400222761</v>
       </c>
       <c r="R100">
-        <v>0.1031964168043413</v>
+        <v>0.0168708913858088</v>
       </c>
       <c r="S100" t="s">
         <v>22</v>
       </c>
       <c r="T100">
-        <v>0.0002696000000241838</v>
+        <v>0.0002821000000068352</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4290,37 +4284,37 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>35.25253513838563</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>87.85411186330506</v>
+        <v>121.0101405535425</v>
       </c>
       <c r="D101">
-        <v>13.25495174035896</v>
+        <v>8.856940790887005</v>
       </c>
       <c r="E101">
         <v>0.0142358842701934</v>
       </c>
       <c r="F101">
-        <v>34.51144377834791</v>
+        <v>9.930023636026359</v>
       </c>
       <c r="G101">
-        <v>88.33710358284576</v>
+        <v>121.0340433807006</v>
       </c>
       <c r="H101">
-        <v>12.84126518556112</v>
+        <v>8.761215061524474</v>
       </c>
       <c r="Q101">
-        <v>0.01058905398359536</v>
+        <v>0.01044753834357342</v>
       </c>
       <c r="R101">
-        <v>0.1286959326008517</v>
+        <v>0.04283924460159118</v>
       </c>
       <c r="S101" t="s">
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.0002603000000362954</v>
+        <v>0.0002738999999962743</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.1.xlsx
+++ b/tests/tests8/N 0.1.xlsx
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="L2">
-        <v>0.0002914000000373562</v>
+        <v>0.0002614000000029648</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <v>0.0002488999999741281</v>
+        <v>0.0002641000000025429</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="L4">
-        <v>0.0002762999999958993</v>
+        <v>0.0002658000000010929</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -603,7 +603,7 @@
         <v>12</v>
       </c>
       <c r="L5">
-        <v>0.000279299999988325</v>
+        <v>0.0002643999999989433</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="L6">
-        <v>0.0002685999999130217</v>
+        <v>0.0002814000000022077</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="L7">
-        <v>0.0002736000000140848</v>
+        <v>0.0002673000000008585</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="L8">
-        <v>0.0002617000000100234</v>
+        <v>0.0002481000000003064</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -755,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="L9">
-        <v>0.0002523999999084481</v>
+        <v>0.0002314000000005478</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="L10">
-        <v>0.0002994999999827996</v>
+        <v>0.0002622999999992714</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="L11">
-        <v>0.000266799999963041</v>
+        <v>0.0002548999999980595</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.1.xlsx
+++ b/tests/tests8/N 0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>П0_ист</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>V0_расч</t>
+  </si>
+  <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
   </si>
   <si>
     <t>Ка</t>
@@ -410,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +459,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -468,31 +480,37 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.8235947654032</v>
+        <v>-0.0312521116997204</v>
       </c>
       <c r="F2">
-        <v>10.09127973660584</v>
+        <v>10.15054030235314</v>
       </c>
       <c r="G2">
-        <v>98.5493027220099</v>
+        <v>11.76909690510718</v>
       </c>
       <c r="H2">
-        <v>11.83430081737701</v>
+        <v>-1.798785789191805</v>
       </c>
       <c r="I2">
-        <v>0.0114549949416778</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="J2">
-        <v>0.1196424034746082</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>15.80711097780685</v>
+      </c>
+      <c r="K2">
+        <v>0.01171854039588332</v>
       </c>
       <c r="L2">
-        <v>0.0002614000000029648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.120527736283885</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>0.0002651000004334492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -506,31 +524,37 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.8375654636337</v>
+        <v>-0.02834811999481507</v>
       </c>
       <c r="F3">
-        <v>10.08791992486293</v>
+        <v>9.999248421453688</v>
       </c>
       <c r="G3">
-        <v>74.99417709126084</v>
+        <v>11.36356155264585</v>
       </c>
       <c r="H3">
-        <v>11.89678564345488</v>
+        <v>3.073217360594945</v>
       </c>
       <c r="I3">
-        <v>0.01088333377517081</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="J3">
-        <v>0.1113036172409455</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+        <v>18.32782196423818</v>
+      </c>
+      <c r="K3">
+        <v>0.01201025768232122</v>
       </c>
       <c r="L3">
-        <v>0.0002641000000025429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.04824754135928899</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>0.0002279999998791027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>0</v>
       </c>
@@ -544,31 +568,37 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.04167578474055147</v>
+        <v>0.007270012010765857</v>
       </c>
       <c r="F4">
-        <v>9.992698843776319</v>
+        <v>9.994795163619917</v>
       </c>
       <c r="G4">
-        <v>78.95033584032657</v>
+        <v>3.208919055755846</v>
       </c>
       <c r="H4">
-        <v>3.271636438004601</v>
+        <v>0.6193371016011099</v>
       </c>
       <c r="I4">
-        <v>0.009940671328543798</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="J4">
-        <v>0.0532245833231031</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
+        <v>9.618122158119826</v>
+      </c>
+      <c r="K4">
+        <v>0.01063030810475612</v>
       </c>
       <c r="L4">
-        <v>0.0002658000000010929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.05991668221496936</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>0.000252599999839731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>0</v>
       </c>
@@ -582,31 +612,37 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>359.8211371526569</v>
+        <v>-0.03158511351649248</v>
       </c>
       <c r="F5">
-        <v>10.14400161317941</v>
+        <v>10.11774020233159</v>
       </c>
       <c r="G5">
-        <v>99.06070722687011</v>
+        <v>11.62694422721877</v>
       </c>
       <c r="H5">
-        <v>11.80660879858752</v>
+        <v>-1.839623824986294</v>
       </c>
       <c r="I5">
-        <v>0.01235317490395779</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="J5">
-        <v>0.1379398881124099</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
+        <v>15.67687823027242</v>
+      </c>
+      <c r="K5">
+        <v>0.01350335552191254</v>
       </c>
       <c r="L5">
-        <v>0.0002643999999989433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.09872513231072406</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>0.000243699999373348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>0</v>
       </c>
@@ -620,31 +656,37 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9949438292857</v>
+        <v>-0.0008823404285185838</v>
       </c>
       <c r="F6">
-        <v>9.986889467820962</v>
+        <v>9.998551349177944</v>
       </c>
       <c r="G6">
-        <v>174.072762966395</v>
+        <v>0.9895265234736079</v>
       </c>
       <c r="H6">
-        <v>9.550053496437441</v>
+        <v>-9.512898771074473</v>
       </c>
       <c r="I6">
-        <v>0.009223987401920968</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="J6">
-        <v>0.008006739174795618</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
+        <v>4.673171010711503</v>
+      </c>
+      <c r="K6">
+        <v>0.009427676533252816</v>
       </c>
       <c r="L6">
-        <v>0.0002814000000022077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.002851007743273151</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>0.0002200999997512554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>0</v>
       </c>
@@ -658,31 +700,37 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>359.9558772513115</v>
+        <v>-0.007691232361561585</v>
       </c>
       <c r="F7">
-        <v>9.937311285214996</v>
+        <v>9.987479918156035</v>
       </c>
       <c r="G7">
-        <v>39.83246360548278</v>
+        <v>8.656631074716548</v>
       </c>
       <c r="H7">
-        <v>13.43940602547789</v>
+        <v>10.33992160039226</v>
       </c>
       <c r="I7">
-        <v>0.01015024460229206</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="J7">
-        <v>0.02638044412711667</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
+        <v>22.87529985576693</v>
+      </c>
+      <c r="K7">
+        <v>0.009685963909487822</v>
       </c>
       <c r="L7">
-        <v>0.0002673000000008585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.009949756963079825</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>0.0002222000002802815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>0</v>
       </c>
@@ -696,31 +744,37 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.03117836734874744</v>
+        <v>0.005391751017618802</v>
       </c>
       <c r="F8">
-        <v>9.887168328449025</v>
+        <v>9.908297748465143</v>
       </c>
       <c r="G8">
-        <v>160.9567104959479</v>
+        <v>2.249028143887795</v>
       </c>
       <c r="H8">
-        <v>6.865784828261718</v>
+        <v>-6.509889380004029</v>
       </c>
       <c r="I8">
-        <v>0.009404265077556323</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="J8">
-        <v>0.07487809720251792</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
+        <v>3.973338297383755</v>
+      </c>
+      <c r="K8">
+        <v>0.009525306057194585</v>
       </c>
       <c r="L8">
-        <v>0.0002481000000003064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.07358233733316884</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>0.0003530999993017758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>0</v>
       </c>
@@ -734,31 +788,37 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.83094742962</v>
+        <v>-0.02883804568927891</v>
       </c>
       <c r="F9">
-        <v>9.789447935733046</v>
+        <v>9.773844366514549</v>
       </c>
       <c r="G9">
-        <v>13.61122139299192</v>
+        <v>2.97343766620812</v>
       </c>
       <c r="H9">
-        <v>12.70502146593216</v>
+        <v>12.27446445743537</v>
       </c>
       <c r="I9">
-        <v>0.01137078093960971</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="J9">
-        <v>0.1504504401591249</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
+        <v>22.28974380606835</v>
+      </c>
+      <c r="K9">
+        <v>0.01209210092182775</v>
       </c>
       <c r="L9">
-        <v>0.0002314000000005478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.06682500463988991</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>0.0002432999999655294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>0</v>
       </c>
@@ -772,31 +832,37 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>359.990879528338</v>
+        <v>-0.001584982737324719</v>
       </c>
       <c r="F10">
-        <v>9.987595150319111</v>
+        <v>9.957031176497003</v>
       </c>
       <c r="G10">
-        <v>157.2169109251027</v>
+        <v>5.63350014725094</v>
       </c>
       <c r="H10">
-        <v>14.60125032717486</v>
+        <v>-13.41375365727434</v>
       </c>
       <c r="I10">
-        <v>0.01102833839900337</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="J10">
-        <v>0.007988119504641284</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
+        <v>11.86534188679525</v>
+      </c>
+      <c r="K10">
+        <v>0.01102905758074746</v>
       </c>
       <c r="L10">
-        <v>0.0002622999999992714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.02129625725851355</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>0.0002154000003429246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>0</v>
       </c>
@@ -810,28 +876,34 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>359.9998891445288</v>
+        <v>-1.938593755350209E-05</v>
       </c>
       <c r="F11">
-        <v>10.02333459640624</v>
+        <v>10.0196444205941</v>
       </c>
       <c r="G11">
-        <v>1.851842467809703</v>
+        <v>0.288616251082322</v>
       </c>
       <c r="H11">
-        <v>8.963829113027826</v>
+        <v>8.957950124951585</v>
       </c>
       <c r="I11">
-        <v>0.009836572311304635</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="J11">
-        <v>0.02055992330008847</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
+        <v>18.26849864379155</v>
+      </c>
+      <c r="K11">
+        <v>0.01048694875987954</v>
       </c>
       <c r="L11">
-        <v>0.0002548999999980595</v>
+        <v>0.02359554868657397</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>0.0002302000002600835</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.1.xlsx
+++ b/tests/tests8/N 0.1.xlsx
@@ -480,16 +480,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.0312521116997204</v>
+        <v>359.8235947654032</v>
       </c>
       <c r="F2">
-        <v>10.15054030235314</v>
+        <v>10.15058841270697</v>
       </c>
       <c r="G2">
-        <v>11.76909690510718</v>
+        <v>98.689824120136</v>
       </c>
       <c r="H2">
-        <v>-1.798785789191805</v>
+        <v>11.90576634564957</v>
       </c>
       <c r="I2">
         <v>0.3392696413876129</v>
@@ -507,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="N2">
-        <v>0.0002651000004334492</v>
+        <v>0.0002349999999999852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -524,16 +524,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>-0.02834811999481507</v>
+        <v>359.8375654636337</v>
       </c>
       <c r="F3">
-        <v>9.999248421453688</v>
+        <v>9.999288605188436</v>
       </c>
       <c r="G3">
-        <v>11.36356155264585</v>
+        <v>74.86666823192665</v>
       </c>
       <c r="H3">
-        <v>3.073217360594945</v>
+        <v>11.77179663884121</v>
       </c>
       <c r="I3">
         <v>0.6427012887259322</v>
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="N3">
-        <v>0.0002279999998791027</v>
+        <v>0.0002310999999997065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -568,16 +568,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.007270012010765857</v>
+        <v>0.04167578474055147</v>
       </c>
       <c r="F4">
-        <v>9.994795163619917</v>
+        <v>9.994797807649475</v>
       </c>
       <c r="G4">
-        <v>3.208919055755846</v>
+        <v>79.07595551619482</v>
       </c>
       <c r="H4">
-        <v>0.6193371016011099</v>
+        <v>3.268140136501593</v>
       </c>
       <c r="I4">
         <v>1.016342879682239</v>
@@ -595,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="N4">
-        <v>0.000252599999839731</v>
+        <v>0.0002374000000004983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -612,16 +612,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>-0.03158511351649248</v>
+        <v>359.8211371526569</v>
       </c>
       <c r="F5">
-        <v>10.11774020233159</v>
+        <v>10.11778950271613</v>
       </c>
       <c r="G5">
-        <v>11.62694422721877</v>
+        <v>98.99085046646687</v>
       </c>
       <c r="H5">
-        <v>-1.839623824986294</v>
+        <v>11.77157796900284</v>
       </c>
       <c r="I5">
         <v>0.3375023832549029</v>
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="N5">
-        <v>0.000243699999373348</v>
+        <v>0.0002329999999997057</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -656,16 +656,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.0008823404285185838</v>
+        <v>359.9949438292857</v>
       </c>
       <c r="F6">
-        <v>9.998551349177944</v>
+        <v>9.998551388109815</v>
       </c>
       <c r="G6">
-        <v>0.9895265234736079</v>
+        <v>174.0614812728707</v>
       </c>
       <c r="H6">
-        <v>-9.512898771074473</v>
+        <v>9.564225309420936</v>
       </c>
       <c r="I6">
         <v>-1.042039640464102</v>
@@ -683,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="N6">
-        <v>0.0002200999997512554</v>
+        <v>0.0002393999999998897</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -700,16 +700,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.007691232361561585</v>
+        <v>359.9558772513115</v>
       </c>
       <c r="F7">
-        <v>9.987479918156035</v>
+        <v>9.987482879616131</v>
       </c>
       <c r="G7">
-        <v>8.656631074716548</v>
+        <v>39.93622848534707</v>
       </c>
       <c r="H7">
-        <v>10.33992160039226</v>
+        <v>13.48522303360262</v>
       </c>
       <c r="I7">
         <v>1.04226575396884</v>
@@ -727,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="N7">
-        <v>0.0002222000002802815</v>
+        <v>0.0002314000000005478</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -744,16 +744,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.005391751017618802</v>
+        <v>0.03117836734874744</v>
       </c>
       <c r="F8">
-        <v>9.908297748465143</v>
+        <v>9.908299215466723</v>
       </c>
       <c r="G8">
-        <v>2.249028143887795</v>
+        <v>160.9410589097737</v>
       </c>
       <c r="H8">
-        <v>-6.509889380004029</v>
+        <v>6.887436920356413</v>
       </c>
       <c r="I8">
         <v>-0.1329274218000709</v>
@@ -771,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="N8">
-        <v>0.0003530999993017758</v>
+        <v>0.00046400000000002</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -788,16 +788,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>-0.02883804568927891</v>
+        <v>359.83094742962</v>
       </c>
       <c r="F9">
-        <v>9.773844366514549</v>
+        <v>9.773886910217826</v>
       </c>
       <c r="G9">
-        <v>2.97343766620812</v>
+        <v>13.61733887498538</v>
       </c>
       <c r="H9">
-        <v>12.27446445743537</v>
+        <v>12.62948174992423</v>
       </c>
       <c r="I9">
         <v>1.35871477809105</v>
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="N9">
-        <v>0.0002432999999655294</v>
+        <v>0.0002409999999999357</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -832,16 +832,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.001584982737324719</v>
+        <v>359.990879528338</v>
       </c>
       <c r="F10">
-        <v>9.957031176497003</v>
+        <v>9.95703130264757</v>
       </c>
       <c r="G10">
-        <v>5.63350014725094</v>
+        <v>157.2185978239477</v>
       </c>
       <c r="H10">
-        <v>-13.41375365727434</v>
+        <v>14.54871510089868</v>
       </c>
       <c r="I10">
         <v>-0.8348238211053474</v>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="N10">
-        <v>0.0002154000003429246</v>
+        <v>0.0002468999999996058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -876,16 +876,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-1.938593755350209E-05</v>
+        <v>359.9998891445288</v>
       </c>
       <c r="F11">
-        <v>10.0196444205941</v>
+        <v>10.01964442061286</v>
       </c>
       <c r="G11">
-        <v>0.288616251082322</v>
+        <v>1.845374715773274</v>
       </c>
       <c r="H11">
-        <v>8.957950124951585</v>
+        <v>8.962598383365671</v>
       </c>
       <c r="I11">
         <v>1.487317718644038</v>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="N11">
-        <v>0.0002302000002600835</v>
+        <v>0.0002294000000002683</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.1.xlsx
+++ b/tests/tests8/N 0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>П0_ист</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>Ка</t>
@@ -416,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +471,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -492,25 +504,31 @@
         <v>11.90576634564957</v>
       </c>
       <c r="I2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="J2">
         <v>15.80711097780685</v>
       </c>
       <c r="K2">
+        <v>70.59667822369958</v>
+      </c>
+      <c r="L2">
+        <v>16.18115281333775</v>
+      </c>
+      <c r="M2">
         <v>0.01171854039588332</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.120527736283885</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>0.0002349999999999852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>0.000236599999993814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>0</v>
       </c>
@@ -536,25 +554,31 @@
         <v>11.77179663884121</v>
       </c>
       <c r="I3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="J3">
         <v>18.32782196423818</v>
       </c>
       <c r="K3">
+        <v>53.16246735665365</v>
+      </c>
+      <c r="L3">
+        <v>18.46515493399556</v>
+      </c>
+      <c r="M3">
         <v>0.01201025768232122</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.04824754135928899</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>0.0002310999999997065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>0.0002819999999985612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0</v>
       </c>
@@ -580,25 +604,31 @@
         <v>3.268140136501593</v>
       </c>
       <c r="I4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="J4">
         <v>9.618122158119826</v>
       </c>
       <c r="K4">
+        <v>31.76328907510253</v>
+      </c>
+      <c r="L4">
+        <v>9.552280849195734</v>
+      </c>
+      <c r="M4">
         <v>0.01063030810475612</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.05991668221496936</v>
       </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4">
-        <v>0.0002374000000004983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>0.0002608000000066113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>0</v>
       </c>
@@ -624,25 +654,31 @@
         <v>11.77157796900284</v>
       </c>
       <c r="I5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="J5">
         <v>15.67687823027242</v>
       </c>
       <c r="K5">
+        <v>70.66968590451413</v>
+      </c>
+      <c r="L5">
+        <v>15.99277987983821</v>
+      </c>
+      <c r="M5">
         <v>0.01350335552191254</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.09872513231072406</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>0.0002329999999997057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>0.0002334000000132619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>0</v>
       </c>
@@ -668,25 +704,31 @@
         <v>9.564225309420936</v>
       </c>
       <c r="I6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="J6">
         <v>4.673171010711503</v>
       </c>
       <c r="K6">
+        <v>149.6985230952382</v>
+      </c>
+      <c r="L6">
+        <v>4.671497791642721</v>
+      </c>
+      <c r="M6">
         <v>0.009427676533252816</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.002851007743273151</v>
       </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>0.0002393999999998897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>0.0003244000000108826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0</v>
       </c>
@@ -712,25 +754,31 @@
         <v>13.48522303360262</v>
       </c>
       <c r="I7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="J7">
         <v>22.87529985576693</v>
       </c>
       <c r="K7">
+        <v>30.2844327654126</v>
+      </c>
+      <c r="L7">
+        <v>22.90477903523024</v>
+      </c>
+      <c r="M7">
         <v>0.009685963909487822</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.009949756963079825</v>
       </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>0.0002314000000005478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>0.0002564000000120359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0</v>
       </c>
@@ -756,25 +804,31 @@
         <v>6.887436920356413</v>
       </c>
       <c r="I8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="J8">
         <v>3.973338297383755</v>
       </c>
       <c r="K8">
+        <v>97.64270009949342</v>
+      </c>
+      <c r="L8">
+        <v>3.909408128118639</v>
+      </c>
+      <c r="M8">
         <v>0.009525306057194585</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.07358233733316884</v>
       </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>0.00046400000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>0.0002423000000248976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0</v>
       </c>
@@ -800,25 +854,31 @@
         <v>12.62948174992423</v>
       </c>
       <c r="I9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="J9">
         <v>22.28974380606835</v>
       </c>
       <c r="K9">
+        <v>12.14406575189272</v>
+      </c>
+      <c r="L9">
+        <v>22.38784033977888</v>
+      </c>
+      <c r="M9">
         <v>0.01209210092182775</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.06682500463988991</v>
       </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>0.0002409999999999357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>0.0002107999999907406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>0</v>
       </c>
@@ -844,25 +904,31 @@
         <v>14.54871510089868</v>
       </c>
       <c r="I10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="J10">
         <v>11.86534188679525</v>
       </c>
       <c r="K10">
+        <v>137.8367861870452</v>
+      </c>
+      <c r="L10">
+        <v>11.81248489618321</v>
+      </c>
+      <c r="M10">
         <v>0.01102905758074746</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.02129625725851355</v>
       </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>0.0002468999999996058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>0.0002087999999957901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0</v>
       </c>
@@ -888,22 +954,28 @@
         <v>8.962598383365671</v>
       </c>
       <c r="I11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="J11">
         <v>18.26849864379155</v>
       </c>
       <c r="K11">
+        <v>4.776302153035675</v>
+      </c>
+      <c r="L11">
+        <v>18.21607954957471</v>
+      </c>
+      <c r="M11">
         <v>0.01048694875987954</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.02359554868657397</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>0.0002294000000002683</v>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>0.0002654999999833763</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.1.xlsx
+++ b/tests/tests8/N 0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="18">
   <si>
     <t>П0_ист</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>[1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1]</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +528,7 @@
         <v>16</v>
       </c>
       <c r="P2">
-        <v>0.000236599999993814</v>
+        <v>0.000240800000000263</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -575,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <v>0.0002819999999985612</v>
+        <v>0.0002388999999993757</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -625,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="P4">
-        <v>0.0002608000000066113</v>
+        <v>0.0002407000000061998</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -675,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="P5">
-        <v>0.0002334000000132619</v>
+        <v>0.0002397000000087246</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -725,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="P6">
-        <v>0.0003244000000108826</v>
+        <v>0.0002261000000203239</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -775,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <v>0.0002564000000120359</v>
+        <v>0.0002001000000007025</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -825,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <v>0.0002423000000248976</v>
+        <v>0.0002467999999851145</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -875,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <v>0.0002107999999907406</v>
+        <v>0.000208000000014863</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -925,7 +928,7 @@
         <v>16</v>
       </c>
       <c r="P10">
-        <v>0.0002087999999957901</v>
+        <v>0.0002895000000080472</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -975,7 +978,4507 @@
         <v>16</v>
       </c>
       <c r="P11">
-        <v>0.0002654999999833763</v>
+        <v>0.0002481999999872642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.866841349587</v>
+      </c>
+      <c r="F12">
+        <v>10.03698212925006</v>
+      </c>
+      <c r="G12">
+        <v>137.115795594081</v>
+      </c>
+      <c r="H12">
+        <v>3.27643378980255</v>
+      </c>
+      <c r="I12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="J12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="K12">
+        <v>40.09966545898919</v>
+      </c>
+      <c r="L12">
+        <v>5.934830059103129</v>
+      </c>
+      <c r="M12">
+        <v>0.01076341679409618</v>
+      </c>
+      <c r="N12">
+        <v>0.1174815137048202</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>0.0002146999999865784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>359.8250545258695</v>
+      </c>
+      <c r="F13">
+        <v>9.867697488897718</v>
+      </c>
+      <c r="G13">
+        <v>31.22882748122538</v>
+      </c>
+      <c r="H13">
+        <v>3.482337697880897</v>
+      </c>
+      <c r="I13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="J13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="K13">
+        <v>16.98762739568154</v>
+      </c>
+      <c r="L13">
+        <v>11.31844806525097</v>
+      </c>
+      <c r="M13">
+        <v>0.01306925575165419</v>
+      </c>
+      <c r="N13">
+        <v>0.2532627187593695</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13">
+        <v>0.0002793000000167467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>359.952701416851</v>
+      </c>
+      <c r="F14">
+        <v>9.982061633654029</v>
+      </c>
+      <c r="G14">
+        <v>27.70608399947726</v>
+      </c>
+      <c r="H14">
+        <v>11.98890833347141</v>
+      </c>
+      <c r="I14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="J14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="K14">
+        <v>21.33295583278008</v>
+      </c>
+      <c r="L14">
+        <v>21.58159390382372</v>
+      </c>
+      <c r="M14">
+        <v>0.0103181578638372</v>
+      </c>
+      <c r="N14">
+        <v>0.03418982782299234</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>0.0002443000000198481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>0.07123906620506157</v>
+      </c>
+      <c r="F15">
+        <v>9.905926326447387</v>
+      </c>
+      <c r="G15">
+        <v>140.3871953768147</v>
+      </c>
+      <c r="H15">
+        <v>5.750750674832275</v>
+      </c>
+      <c r="I15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="J15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="K15">
+        <v>70.53333479626544</v>
+      </c>
+      <c r="L15">
+        <v>5.921243352094502</v>
+      </c>
+      <c r="M15">
+        <v>0.009276888580787162</v>
+      </c>
+      <c r="N15">
+        <v>0.0881372832518964</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>0.0002296000000114873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>359.8448660888747</v>
+      </c>
+      <c r="F16">
+        <v>10.05084284942101</v>
+      </c>
+      <c r="G16">
+        <v>92.33466138140966</v>
+      </c>
+      <c r="H16">
+        <v>12.46817327162717</v>
+      </c>
+      <c r="I16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="J16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="K16">
+        <v>67.01798343241016</v>
+      </c>
+      <c r="L16">
+        <v>17.48006672150285</v>
+      </c>
+      <c r="M16">
+        <v>0.01273539567265587</v>
+      </c>
+      <c r="N16">
+        <v>0.06479136305246354</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>0.0002072999999995773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.0312328481543536</v>
+      </c>
+      <c r="F17">
+        <v>9.951265876893851</v>
+      </c>
+      <c r="G17">
+        <v>153.0450630855279</v>
+      </c>
+      <c r="H17">
+        <v>5.10555719537187</v>
+      </c>
+      <c r="I17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="J17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="K17">
+        <v>64.63814587851283</v>
+      </c>
+      <c r="L17">
+        <v>4.374660716105936</v>
+      </c>
+      <c r="M17">
+        <v>0.01013812602530123</v>
+      </c>
+      <c r="N17">
+        <v>0.05065835701619142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>0.0002566000000001623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>359.9872051278866</v>
+      </c>
+      <c r="F18">
+        <v>9.941364066779993</v>
+      </c>
+      <c r="G18">
+        <v>40.11056654946476</v>
+      </c>
+      <c r="H18">
+        <v>9.218605842394991</v>
+      </c>
+      <c r="I18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="J18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="K18">
+        <v>27.7219877927028</v>
+      </c>
+      <c r="L18">
+        <v>17.83238500562422</v>
+      </c>
+      <c r="M18">
+        <v>0.008566764152049877</v>
+      </c>
+      <c r="N18">
+        <v>0.03348148585201283</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.0002253000000109751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.9723734109978</v>
+      </c>
+      <c r="F19">
+        <v>9.967282566113502</v>
+      </c>
+      <c r="G19">
+        <v>52.93000256342603</v>
+      </c>
+      <c r="H19">
+        <v>9.367914513459931</v>
+      </c>
+      <c r="I19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="J19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="K19">
+        <v>35.65671097546747</v>
+      </c>
+      <c r="L19">
+        <v>17.38678595830221</v>
+      </c>
+      <c r="M19">
+        <v>0.01033678168377055</v>
+      </c>
+      <c r="N19">
+        <v>0.009247235901906547</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>0.000229300000000876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.9920571556194</v>
+      </c>
+      <c r="F20">
+        <v>9.962674336322175</v>
+      </c>
+      <c r="G20">
+        <v>117.0589287335032</v>
+      </c>
+      <c r="H20">
+        <v>9.020144006371524</v>
+      </c>
+      <c r="I20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="J20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="K20">
+        <v>77.3679199900433</v>
+      </c>
+      <c r="L20">
+        <v>11.07653582958841</v>
+      </c>
+      <c r="M20">
+        <v>0.01030540714513029</v>
+      </c>
+      <c r="N20">
+        <v>0.02046262898271944</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>0.0002345999999988635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.9778996737318</v>
+      </c>
+      <c r="F21">
+        <v>9.938967913836771</v>
+      </c>
+      <c r="G21">
+        <v>17.4931443480366</v>
+      </c>
+      <c r="H21">
+        <v>12.1398963427984</v>
+      </c>
+      <c r="I21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="J21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="K21">
+        <v>14.64816773222598</v>
+      </c>
+      <c r="L21">
+        <v>21.92953618956951</v>
+      </c>
+      <c r="M21">
+        <v>0.009752443166247182</v>
+      </c>
+      <c r="N21">
+        <v>0.009200395086604628</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>0.000204700000011826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>359.9116106887382</v>
+      </c>
+      <c r="F22">
+        <v>9.991043797886723</v>
+      </c>
+      <c r="G22">
+        <v>105.7679398741042</v>
+      </c>
+      <c r="H22">
+        <v>13.80030168003096</v>
+      </c>
+      <c r="I22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="J22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="K22">
+        <v>80.45348409906298</v>
+      </c>
+      <c r="L22">
+        <v>17.33226974012978</v>
+      </c>
+      <c r="M22">
+        <v>0.0104404679369313</v>
+      </c>
+      <c r="N22">
+        <v>0.01349430166190146</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>0.0002350000000035379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>0.005196424950550942</v>
+      </c>
+      <c r="F23">
+        <v>10.03771825534403</v>
+      </c>
+      <c r="G23">
+        <v>8.845360607776845</v>
+      </c>
+      <c r="H23">
+        <v>6.455805265036281</v>
+      </c>
+      <c r="I23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="J23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="K23">
+        <v>8.906429863776804</v>
+      </c>
+      <c r="L23">
+        <v>15.26018676772871</v>
+      </c>
+      <c r="M23">
+        <v>0.01018024542127237</v>
+      </c>
+      <c r="N23">
+        <v>0.01432205982657861</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>0.0002307999999970889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.009194991986513107</v>
+      </c>
+      <c r="F24">
+        <v>10.0193585031135</v>
+      </c>
+      <c r="G24">
+        <v>37.62299120389623</v>
+      </c>
+      <c r="H24">
+        <v>8.74258895169312</v>
+      </c>
+      <c r="I24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="J24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="K24">
+        <v>25.74326176115221</v>
+      </c>
+      <c r="L24">
+        <v>17.44372314728354</v>
+      </c>
+      <c r="M24">
+        <v>0.01104111617905268</v>
+      </c>
+      <c r="N24">
+        <v>0.01749569029069295</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>0.0002208999999879779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.9333011943647</v>
+      </c>
+      <c r="F25">
+        <v>9.954893136976096</v>
+      </c>
+      <c r="G25">
+        <v>93.03950154664859</v>
+      </c>
+      <c r="H25">
+        <v>14.32428084985268</v>
+      </c>
+      <c r="I25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="J25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="K25">
+        <v>70.67168203511916</v>
+      </c>
+      <c r="L25">
+        <v>19.41828454516875</v>
+      </c>
+      <c r="M25">
+        <v>0.009629102032976334</v>
+      </c>
+      <c r="N25">
+        <v>0.0140412862315114</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>0.0002034000000037395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.8670787827351</v>
+      </c>
+      <c r="F26">
+        <v>9.98355992431582</v>
+      </c>
+      <c r="G26">
+        <v>172.649911678449</v>
+      </c>
+      <c r="H26">
+        <v>11.38419331021362</v>
+      </c>
+      <c r="I26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="J26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="K26">
+        <v>154.9053591058529</v>
+      </c>
+      <c r="L26">
+        <v>6.825917212501726</v>
+      </c>
+      <c r="M26">
+        <v>0.01797331771281241</v>
+      </c>
+      <c r="N26">
+        <v>0.02923175828954151</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>0.0006535999999925934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>359.9771726910334</v>
+      </c>
+      <c r="F27">
+        <v>10.00275872928332</v>
+      </c>
+      <c r="G27">
+        <v>156.5858027089294</v>
+      </c>
+      <c r="H27">
+        <v>9.99431027776164</v>
+      </c>
+      <c r="I27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="J27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="K27">
+        <v>121.3869582656298</v>
+      </c>
+      <c r="L27">
+        <v>6.949129815194473</v>
+      </c>
+      <c r="M27">
+        <v>0.01100497860812466</v>
+      </c>
+      <c r="N27">
+        <v>0.007691551455424435</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>0.0002300000000161617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>359.980400678834</v>
+      </c>
+      <c r="F28">
+        <v>9.983940351891702</v>
+      </c>
+      <c r="G28">
+        <v>55.41176320535128</v>
+      </c>
+      <c r="H28">
+        <v>9.223991419857549</v>
+      </c>
+      <c r="I28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="J28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="K28">
+        <v>36.98031554050078</v>
+      </c>
+      <c r="L28">
+        <v>17.08854290930553</v>
+      </c>
+      <c r="M28">
+        <v>0.009703072951185072</v>
+      </c>
+      <c r="N28">
+        <v>0.005587325769649525</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>0.0001997999999900912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.8714394584768</v>
+      </c>
+      <c r="F29">
+        <v>10.00209859169696</v>
+      </c>
+      <c r="G29">
+        <v>76.52067274341111</v>
+      </c>
+      <c r="H29">
+        <v>12.87683886282352</v>
+      </c>
+      <c r="I29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="J29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="K29">
+        <v>55.81137330978476</v>
+      </c>
+      <c r="L29">
+        <v>19.55358648322298</v>
+      </c>
+      <c r="M29">
+        <v>0.01129559268324813</v>
+      </c>
+      <c r="N29">
+        <v>0.03300901467556053</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>0.0001966000000095391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.955366762213</v>
+      </c>
+      <c r="F30">
+        <v>10.05390584499696</v>
+      </c>
+      <c r="G30">
+        <v>131.1429894513936</v>
+      </c>
+      <c r="H30">
+        <v>9.8216264020124</v>
+      </c>
+      <c r="I30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="J30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="K30">
+        <v>91.80826188474772</v>
+      </c>
+      <c r="L30">
+        <v>10.0432695437799</v>
+      </c>
+      <c r="M30">
+        <v>0.009740028245259822</v>
+      </c>
+      <c r="N30">
+        <v>0.03810872540582429</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <v>0.0001935000000230502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>0.04174821263045001</v>
+      </c>
+      <c r="F31">
+        <v>9.910503029233391</v>
+      </c>
+      <c r="G31">
+        <v>155.7416666862562</v>
+      </c>
+      <c r="H31">
+        <v>6.327961675022006</v>
+      </c>
+      <c r="I31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="J31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="K31">
+        <v>85.06490596014231</v>
+      </c>
+      <c r="L31">
+        <v>4.313489130155951</v>
+      </c>
+      <c r="M31">
+        <v>0.01035943966130926</v>
+      </c>
+      <c r="N31">
+        <v>0.07294911463528142</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>0.0002159000000006017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.1264052664776349</v>
+      </c>
+      <c r="F32">
+        <v>9.808555987435049</v>
+      </c>
+      <c r="G32">
+        <v>116.2129760859437</v>
+      </c>
+      <c r="H32">
+        <v>7.308477813240826</v>
+      </c>
+      <c r="I32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="J32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="K32">
+        <v>69.88496879667599</v>
+      </c>
+      <c r="L32">
+        <v>9.648869852810348</v>
+      </c>
+      <c r="M32">
+        <v>0.01108333145449886</v>
+      </c>
+      <c r="N32">
+        <v>0.1554513406946946</v>
+      </c>
+      <c r="O32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32">
+        <v>0.0001952000000073895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.04147572142515835</v>
+      </c>
+      <c r="F33">
+        <v>9.920803142516668</v>
+      </c>
+      <c r="G33">
+        <v>51.38548024976543</v>
+      </c>
+      <c r="H33">
+        <v>14.34238443592547</v>
+      </c>
+      <c r="I33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="J33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="K33">
+        <v>39.02437816148777</v>
+      </c>
+      <c r="L33">
+        <v>23.22803398631856</v>
+      </c>
+      <c r="M33">
+        <v>0.01034866931194835</v>
+      </c>
+      <c r="N33">
+        <v>0.05508484782675938</v>
+      </c>
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>0.0001982999999938784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>0.03488944509893788</v>
+      </c>
+      <c r="F34">
+        <v>9.856849574226247</v>
+      </c>
+      <c r="G34">
+        <v>154.8337247922117</v>
+      </c>
+      <c r="H34">
+        <v>7.3122725981292</v>
+      </c>
+      <c r="I34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="J34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="K34">
+        <v>98.13235948050553</v>
+      </c>
+      <c r="L34">
+        <v>4.957734841347119</v>
+      </c>
+      <c r="M34">
+        <v>0.01037525752429511</v>
+      </c>
+      <c r="N34">
+        <v>0.0963482328399568</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34">
+        <v>0.0001922999999806052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.03188535051081121</v>
+      </c>
+      <c r="F35">
+        <v>9.970901877214464</v>
+      </c>
+      <c r="G35">
+        <v>44.76039877968548</v>
+      </c>
+      <c r="H35">
+        <v>8.308224361483379</v>
+      </c>
+      <c r="I35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="J35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="K35">
+        <v>29.59018246613041</v>
+      </c>
+      <c r="L35">
+        <v>16.59850341706008</v>
+      </c>
+      <c r="M35">
+        <v>0.009652966645716325</v>
+      </c>
+      <c r="N35">
+        <v>0.04488478822223931</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>0.0001972000000023399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.9756164899372</v>
+      </c>
+      <c r="F36">
+        <v>9.982718088743129</v>
+      </c>
+      <c r="G36">
+        <v>6.967126173536251</v>
+      </c>
+      <c r="H36">
+        <v>12.35484818874454</v>
+      </c>
+      <c r="I36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="J36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="K36">
+        <v>7.64617219744377</v>
+      </c>
+      <c r="L36">
+        <v>22.28080406382363</v>
+      </c>
+      <c r="M36">
+        <v>0.009614114348886045</v>
+      </c>
+      <c r="N36">
+        <v>0.006979327992069836</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36">
+        <v>0.000214499999998452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>0.1889736710087823</v>
+      </c>
+      <c r="F37">
+        <v>9.903268282586605</v>
+      </c>
+      <c r="G37">
+        <v>83.02214480579468</v>
+      </c>
+      <c r="H37">
+        <v>6.466068838018461</v>
+      </c>
+      <c r="I37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="J37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="K37">
+        <v>47.25741519307634</v>
+      </c>
+      <c r="L37">
+        <v>12.12527593152516</v>
+      </c>
+      <c r="M37">
+        <v>0.01349070804871553</v>
+      </c>
+      <c r="N37">
+        <v>0.1504369539476282</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37">
+        <v>0.0002010999999981777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>359.9323586734246</v>
+      </c>
+      <c r="F38">
+        <v>10.05453014348934</v>
+      </c>
+      <c r="G38">
+        <v>131.0253188962957</v>
+      </c>
+      <c r="H38">
+        <v>10.31616968938382</v>
+      </c>
+      <c r="I38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="J38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="K38">
+        <v>93.74739847001663</v>
+      </c>
+      <c r="L38">
+        <v>10.52034245132572</v>
+      </c>
+      <c r="M38">
+        <v>0.01169765648397077</v>
+      </c>
+      <c r="N38">
+        <v>0.04263657243991283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38">
+        <v>0.0001890000000059899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.005446361233744566</v>
+      </c>
+      <c r="F39">
+        <v>9.952175786662094</v>
+      </c>
+      <c r="G39">
+        <v>170.0729499835894</v>
+      </c>
+      <c r="H39">
+        <v>8.513047895967633</v>
+      </c>
+      <c r="I39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="J39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="K39">
+        <v>132.9191828324765</v>
+      </c>
+      <c r="L39">
+        <v>4.004451774938899</v>
+      </c>
+      <c r="M39">
+        <v>0.00973880298808946</v>
+      </c>
+      <c r="N39">
+        <v>0.03918005062359124</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>0.0001958000000001903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.8991294351883</v>
+      </c>
+      <c r="F40">
+        <v>10.0149301022676</v>
+      </c>
+      <c r="G40">
+        <v>69.21208490417742</v>
+      </c>
+      <c r="H40">
+        <v>13.41526325942876</v>
+      </c>
+      <c r="I40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="J40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="K40">
+        <v>51.01932851393642</v>
+      </c>
+      <c r="L40">
+        <v>20.84386168109657</v>
+      </c>
+      <c r="M40">
+        <v>0.01110191473685137</v>
+      </c>
+      <c r="N40">
+        <v>0.03003065201786381</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>0.0001932999999780805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.8595160433978</v>
+      </c>
+      <c r="F41">
+        <v>10.04837703179357</v>
+      </c>
+      <c r="G41">
+        <v>98.30613401214836</v>
+      </c>
+      <c r="H41">
+        <v>12.73438911676446</v>
+      </c>
+      <c r="I41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="J41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="K41">
+        <v>72.19449012102471</v>
+      </c>
+      <c r="L41">
+        <v>17.08516765078657</v>
+      </c>
+      <c r="M41">
+        <v>0.01205688360359682</v>
+      </c>
+      <c r="N41">
+        <v>0.05349263240924691</v>
+      </c>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>0.0001947000000086518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>0.06075476972112828</v>
+      </c>
+      <c r="F42">
+        <v>9.990687422016315</v>
+      </c>
+      <c r="G42">
+        <v>73.76328263101352</v>
+      </c>
+      <c r="H42">
+        <v>3.612198944536921</v>
+      </c>
+      <c r="I42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="J42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="K42">
+        <v>31.89177348197201</v>
+      </c>
+      <c r="L42">
+        <v>10.11287556684596</v>
+      </c>
+      <c r="M42">
+        <v>0.01010016674719439</v>
+      </c>
+      <c r="N42">
+        <v>0.06490605390345873</v>
+      </c>
+      <c r="O42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42">
+        <v>0.0001985000000104264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.0270712323067284</v>
+      </c>
+      <c r="F43">
+        <v>9.985458457921681</v>
+      </c>
+      <c r="G43">
+        <v>45.33343978562201</v>
+      </c>
+      <c r="H43">
+        <v>3.499851604696151</v>
+      </c>
+      <c r="I43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="J43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="K43">
+        <v>21.96170044657355</v>
+      </c>
+      <c r="L43">
+        <v>11.12907653735518</v>
+      </c>
+      <c r="M43">
+        <v>0.01002632677405047</v>
+      </c>
+      <c r="N43">
+        <v>0.05816836624647771</v>
+      </c>
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43">
+        <v>0.0001940999999874293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>359.9503285846989</v>
+      </c>
+      <c r="F44">
+        <v>9.976954072511679</v>
+      </c>
+      <c r="G44">
+        <v>67.38611235168609</v>
+      </c>
+      <c r="H44">
+        <v>14.39886135611596</v>
+      </c>
+      <c r="I44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="J44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="K44">
+        <v>50.70293233216564</v>
+      </c>
+      <c r="L44">
+        <v>22.1121738571242</v>
+      </c>
+      <c r="M44">
+        <v>0.009864779470910814</v>
+      </c>
+      <c r="N44">
+        <v>0.004716860388604883</v>
+      </c>
+      <c r="O44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <v>0.0002254000000050382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.9742600074655</v>
+      </c>
+      <c r="F45">
+        <v>9.944594582958024</v>
+      </c>
+      <c r="G45">
+        <v>20.61364277849138</v>
+      </c>
+      <c r="H45">
+        <v>10.33189240952165</v>
+      </c>
+      <c r="I45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="J45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="K45">
+        <v>16.28512702829657</v>
+      </c>
+      <c r="L45">
+        <v>19.72407898563429</v>
+      </c>
+      <c r="M45">
+        <v>0.009839370859412744</v>
+      </c>
+      <c r="N45">
+        <v>0.01547504055724501</v>
+      </c>
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>0.0002012999999863041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.07506147172559083</v>
+      </c>
+      <c r="F46">
+        <v>9.96042045531612</v>
+      </c>
+      <c r="G46">
+        <v>150.9888303005195</v>
+      </c>
+      <c r="H46">
+        <v>4.230134530149657</v>
+      </c>
+      <c r="I46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="J46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="K46">
+        <v>51.45013222126852</v>
+      </c>
+      <c r="L46">
+        <v>4.661166870997469</v>
+      </c>
+      <c r="M46">
+        <v>0.0106709652353532</v>
+      </c>
+      <c r="N46">
+        <v>0.07020559078208902</v>
+      </c>
+      <c r="O46" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46">
+        <v>0.0002700999999944997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.997362522715</v>
+      </c>
+      <c r="F47">
+        <v>9.994904929055753</v>
+      </c>
+      <c r="G47">
+        <v>178.0266052758755</v>
+      </c>
+      <c r="H47">
+        <v>9.588788021852235</v>
+      </c>
+      <c r="I47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="J47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="K47">
+        <v>159.1910359812559</v>
+      </c>
+      <c r="L47">
+        <v>4.408762008648833</v>
+      </c>
+      <c r="M47">
+        <v>0.009448017007495261</v>
+      </c>
+      <c r="N47">
+        <v>0.005293051893126371</v>
+      </c>
+      <c r="O47" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47">
+        <v>0.0002307000000030257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>359.941512416013</v>
+      </c>
+      <c r="F48">
+        <v>10.0770587337118</v>
+      </c>
+      <c r="G48">
+        <v>140.9967119875224</v>
+      </c>
+      <c r="H48">
+        <v>10.74060914108488</v>
+      </c>
+      <c r="I48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="J48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="K48">
+        <v>105.4078486190587</v>
+      </c>
+      <c r="L48">
+        <v>9.61754760297497</v>
+      </c>
+      <c r="M48">
+        <v>0.0108841496830232</v>
+      </c>
+      <c r="N48">
+        <v>0.05309128153232782</v>
+      </c>
+      <c r="O48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48">
+        <v>0.0001876000000038403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.0848009475766186</v>
+      </c>
+      <c r="F49">
+        <v>10.03250154455279</v>
+      </c>
+      <c r="G49">
+        <v>20.43733283702337</v>
+      </c>
+      <c r="H49">
+        <v>14.47362444937847</v>
+      </c>
+      <c r="I49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="J49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="K49">
+        <v>17.01525206965196</v>
+      </c>
+      <c r="L49">
+        <v>24.77573164726224</v>
+      </c>
+      <c r="M49">
+        <v>0.01032773719684715</v>
+      </c>
+      <c r="N49">
+        <v>0.05761738268288439</v>
+      </c>
+      <c r="O49" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49">
+        <v>0.0002005000000053769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>0.09936313199284796</v>
+      </c>
+      <c r="F50">
+        <v>10.13717186220989</v>
+      </c>
+      <c r="G50">
+        <v>3.012216256797718</v>
+      </c>
+      <c r="H50">
+        <v>13.30677654723631</v>
+      </c>
+      <c r="I50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="J50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="K50">
+        <v>4.937133785585554</v>
+      </c>
+      <c r="L50">
+        <v>23.55425638760477</v>
+      </c>
+      <c r="M50">
+        <v>0.01108787890998956</v>
+      </c>
+      <c r="N50">
+        <v>0.1087071225666915</v>
+      </c>
+      <c r="O50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <v>0.000191499999999678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>0.1043159078206541</v>
+      </c>
+      <c r="F51">
+        <v>9.960760633657234</v>
+      </c>
+      <c r="G51">
+        <v>54.37684678427737</v>
+      </c>
+      <c r="H51">
+        <v>5.817563157043608</v>
+      </c>
+      <c r="I51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="J51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="K51">
+        <v>31.02630774713944</v>
+      </c>
+      <c r="L51">
+        <v>13.31556837309874</v>
+      </c>
+      <c r="M51">
+        <v>0.01006479019933761</v>
+      </c>
+      <c r="N51">
+        <v>0.1025560146253155</v>
+      </c>
+      <c r="O51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51">
+        <v>0.0002585999999951127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>0.1560352108683698</v>
+      </c>
+      <c r="F52">
+        <v>9.905990123875647</v>
+      </c>
+      <c r="G52">
+        <v>89.59047033974872</v>
+      </c>
+      <c r="H52">
+        <v>5.557545964265646</v>
+      </c>
+      <c r="I52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="J52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="K52">
+        <v>46.99298820479474</v>
+      </c>
+      <c r="L52">
+        <v>10.75705782037129</v>
+      </c>
+      <c r="M52">
+        <v>0.01195609320996712</v>
+      </c>
+      <c r="N52">
+        <v>0.1411068050336361</v>
+      </c>
+      <c r="O52" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52">
+        <v>0.0002358000000128868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>0.02905031733486384</v>
+      </c>
+      <c r="F53">
+        <v>9.969237089622824</v>
+      </c>
+      <c r="G53">
+        <v>121.7952571035253</v>
+      </c>
+      <c r="H53">
+        <v>3.509118333256365</v>
+      </c>
+      <c r="I53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="J53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="K53">
+        <v>42.80138110095523</v>
+      </c>
+      <c r="L53">
+        <v>6.997539769694259</v>
+      </c>
+      <c r="M53">
+        <v>0.009839231858077932</v>
+      </c>
+      <c r="N53">
+        <v>0.04324520951871004</v>
+      </c>
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>0.000290799999987712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.9480524159385</v>
+      </c>
+      <c r="F54">
+        <v>10.02842257906256</v>
+      </c>
+      <c r="G54">
+        <v>147.4563075915119</v>
+      </c>
+      <c r="H54">
+        <v>3.324725251665497</v>
+      </c>
+      <c r="I54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="J54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="K54">
+        <v>39.24606366123833</v>
+      </c>
+      <c r="L54">
+        <v>5.228110873388551</v>
+      </c>
+      <c r="M54">
+        <v>0.009391118494601192</v>
+      </c>
+      <c r="N54">
+        <v>0.05437324164500913</v>
+      </c>
+      <c r="O54" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>0.0002079999999864413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>359.979413513315</v>
+      </c>
+      <c r="F55">
+        <v>9.958291036668149</v>
+      </c>
+      <c r="G55">
+        <v>152.384424646595</v>
+      </c>
+      <c r="H55">
+        <v>9.683622814398346</v>
+      </c>
+      <c r="I55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="J55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="K55">
+        <v>114.2684506099561</v>
+      </c>
+      <c r="L55">
+        <v>7.188594184962138</v>
+      </c>
+      <c r="M55">
+        <v>0.0113403072429406</v>
+      </c>
+      <c r="N55">
+        <v>0.02101417776142518</v>
+      </c>
+      <c r="O55" t="s">
+        <v>16</v>
+      </c>
+      <c r="P55">
+        <v>0.0001931999999840173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.185221074461286</v>
+      </c>
+      <c r="F56">
+        <v>9.887119835230521</v>
+      </c>
+      <c r="G56">
+        <v>75.97523878635175</v>
+      </c>
+      <c r="H56">
+        <v>7.096426562049173</v>
+      </c>
+      <c r="I56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="J56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="K56">
+        <v>45.39582092425425</v>
+      </c>
+      <c r="L56">
+        <v>13.2930037951572</v>
+      </c>
+      <c r="M56">
+        <v>0.01182946652611291</v>
+      </c>
+      <c r="N56">
+        <v>0.1534555158753635</v>
+      </c>
+      <c r="O56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P56">
+        <v>0.0002312999999958265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>0.1623731114634006</v>
+      </c>
+      <c r="F57">
+        <v>10.10350599992989</v>
+      </c>
+      <c r="G57">
+        <v>16.79605919141168</v>
+      </c>
+      <c r="H57">
+        <v>14.27792334883591</v>
+      </c>
+      <c r="I57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="J57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="K57">
+        <v>14.43657667437861</v>
+      </c>
+      <c r="L57">
+        <v>24.66861598647156</v>
+      </c>
+      <c r="M57">
+        <v>0.01162206876951862</v>
+      </c>
+      <c r="N57">
+        <v>0.09270859979648052</v>
+      </c>
+      <c r="O57" t="s">
+        <v>16</v>
+      </c>
+      <c r="P57">
+        <v>0.0002255999999931646</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.1037643175502605</v>
+      </c>
+      <c r="F58">
+        <v>9.759421012252741</v>
+      </c>
+      <c r="G58">
+        <v>177.8989797301126</v>
+      </c>
+      <c r="H58">
+        <v>6.763887657861732</v>
+      </c>
+      <c r="I58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="J58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="K58">
+        <v>123.0905776798367</v>
+      </c>
+      <c r="L58">
+        <v>1.773314395993201</v>
+      </c>
+      <c r="M58">
+        <v>0.02137214139722306</v>
+      </c>
+      <c r="N58">
+        <v>0.3725781153320918</v>
+      </c>
+      <c r="O58" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58">
+        <v>0.000202099999995653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>0.0131052157346955</v>
+      </c>
+      <c r="F59">
+        <v>9.968968273421876</v>
+      </c>
+      <c r="G59">
+        <v>15.60944803637679</v>
+      </c>
+      <c r="H59">
+        <v>5.767107067273896</v>
+      </c>
+      <c r="I59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="J59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="K59">
+        <v>12.2161067610561</v>
+      </c>
+      <c r="L59">
+        <v>14.34266131595357</v>
+      </c>
+      <c r="M59">
+        <v>0.01096751688890127</v>
+      </c>
+      <c r="N59">
+        <v>0.01138169698131626</v>
+      </c>
+      <c r="O59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59">
+        <v>0.0002149000000031265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.07601861461744777</v>
+      </c>
+      <c r="F60">
+        <v>9.908037653306499</v>
+      </c>
+      <c r="G60">
+        <v>65.66363809614384</v>
+      </c>
+      <c r="H60">
+        <v>8.258622132773016</v>
+      </c>
+      <c r="I60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="J60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="K60">
+        <v>41.91826366541355</v>
+      </c>
+      <c r="L60">
+        <v>15.28782250085114</v>
+      </c>
+      <c r="M60">
+        <v>0.009814255044332943</v>
+      </c>
+      <c r="N60">
+        <v>0.08407723532807476</v>
+      </c>
+      <c r="O60" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60">
+        <v>0.0003159000000039214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.1669283521394677</v>
+      </c>
+      <c r="F61">
+        <v>9.8297775148411</v>
+      </c>
+      <c r="G61">
+        <v>167.8276153027255</v>
+      </c>
+      <c r="H61">
+        <v>4.792475621096772</v>
+      </c>
+      <c r="I61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="J61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="K61">
+        <v>56.57565171850798</v>
+      </c>
+      <c r="L61">
+        <v>2.88960696878752</v>
+      </c>
+      <c r="M61">
+        <v>0.01412227662523183</v>
+      </c>
+      <c r="N61">
+        <v>0.2291737033789454</v>
+      </c>
+      <c r="O61" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61">
+        <v>0.0002159000000006017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>0.0921770993213077</v>
+      </c>
+      <c r="F62">
+        <v>10.00878999329769</v>
+      </c>
+      <c r="G62">
+        <v>54.60502004139229</v>
+      </c>
+      <c r="H62">
+        <v>5.132814286644152</v>
+      </c>
+      <c r="I62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="J62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="K62">
+        <v>29.52647303377135</v>
+      </c>
+      <c r="L62">
+        <v>12.59583052831788</v>
+      </c>
+      <c r="M62">
+        <v>0.01163883486750869</v>
+      </c>
+      <c r="N62">
+        <v>0.08246097836848479</v>
+      </c>
+      <c r="O62" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62">
+        <v>0.0001970999999798551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.04314955515597899</v>
+      </c>
+      <c r="F63">
+        <v>9.953539947684334</v>
+      </c>
+      <c r="G63">
+        <v>148.7042472802698</v>
+      </c>
+      <c r="H63">
+        <v>5.134420876780404</v>
+      </c>
+      <c r="I63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="J63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="K63">
+        <v>64.67155656474165</v>
+      </c>
+      <c r="L63">
+        <v>4.844141603965494</v>
+      </c>
+      <c r="M63">
+        <v>0.01052556094086022</v>
+      </c>
+      <c r="N63">
+        <v>0.04840025829940382</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>0.0002044999999952779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.001232542630374539</v>
+      </c>
+      <c r="F64">
+        <v>10.02254127682317</v>
+      </c>
+      <c r="G64">
+        <v>6.086938908510949</v>
+      </c>
+      <c r="H64">
+        <v>8.837426229157995</v>
+      </c>
+      <c r="I64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="J64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="K64">
+        <v>7.286095614516556</v>
+      </c>
+      <c r="L64">
+        <v>18.09743355733918</v>
+      </c>
+      <c r="M64">
+        <v>0.008954106370022485</v>
+      </c>
+      <c r="N64">
+        <v>0.01088254871974335</v>
+      </c>
+      <c r="O64" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>0.0002026000000228123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>0.2138978653518085</v>
+      </c>
+      <c r="F65">
+        <v>9.806591824950312</v>
+      </c>
+      <c r="G65">
+        <v>100.1446387004949</v>
+      </c>
+      <c r="H65">
+        <v>7.421399803346646</v>
+      </c>
+      <c r="I65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="J65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="K65">
+        <v>60.59222197276129</v>
+      </c>
+      <c r="L65">
+        <v>11.44871420925356</v>
+      </c>
+      <c r="M65">
+        <v>0.01331687113048329</v>
+      </c>
+      <c r="N65">
+        <v>0.1934654086663379</v>
+      </c>
+      <c r="O65" t="s">
+        <v>16</v>
+      </c>
+      <c r="P65">
+        <v>0.0002323000000217235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>359.8899677060768</v>
+      </c>
+      <c r="F66">
+        <v>10.00785777489123</v>
+      </c>
+      <c r="G66">
+        <v>68.07152096818241</v>
+      </c>
+      <c r="H66">
+        <v>9.919618774180085</v>
+      </c>
+      <c r="I66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="J66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="K66">
+        <v>45.85047329607089</v>
+      </c>
+      <c r="L66">
+        <v>16.99393575856925</v>
+      </c>
+      <c r="M66">
+        <v>0.01225788221220865</v>
+      </c>
+      <c r="N66">
+        <v>0.04749805727072957</v>
+      </c>
+      <c r="O66" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66">
+        <v>0.0002052000000105636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.08336648231326493</v>
+      </c>
+      <c r="F67">
+        <v>10.00951263852128</v>
+      </c>
+      <c r="G67">
+        <v>39.73235813580155</v>
+      </c>
+      <c r="H67">
+        <v>3.272296571062197</v>
+      </c>
+      <c r="I67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="J67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="K67">
+        <v>19.53707355651678</v>
+      </c>
+      <c r="L67">
+        <v>11.04911627691135</v>
+      </c>
+      <c r="M67">
+        <v>0.0104193909020485</v>
+      </c>
+      <c r="N67">
+        <v>0.1136229290803181</v>
+      </c>
+      <c r="O67" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67">
+        <v>0.0002141999999878408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.8584385635936</v>
+      </c>
+      <c r="F68">
+        <v>9.907203554930428</v>
+      </c>
+      <c r="G68">
+        <v>27.35364210128381</v>
+      </c>
+      <c r="H68">
+        <v>4.785256297793686</v>
+      </c>
+      <c r="I68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="J68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="K68">
+        <v>16.98364707057701</v>
+      </c>
+      <c r="L68">
+        <v>12.95609540913122</v>
+      </c>
+      <c r="M68">
+        <v>0.01155878804443448</v>
+      </c>
+      <c r="N68">
+        <v>0.1283854704222264</v>
+      </c>
+      <c r="O68" t="s">
+        <v>16</v>
+      </c>
+      <c r="P68">
+        <v>0.0002395000000205982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>359.887147784778</v>
+      </c>
+      <c r="F69">
+        <v>10.0357973119402</v>
+      </c>
+      <c r="G69">
+        <v>98.12922037435686</v>
+      </c>
+      <c r="H69">
+        <v>13.437807397938</v>
+      </c>
+      <c r="I69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="J69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="K69">
+        <v>73.2854530621803</v>
+      </c>
+      <c r="L69">
+        <v>17.86899705729465</v>
+      </c>
+      <c r="M69">
+        <v>0.01126411459722657</v>
+      </c>
+      <c r="N69">
+        <v>0.04587469710121921</v>
+      </c>
+      <c r="O69" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69">
+        <v>0.0002597999999807143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>0.0944476364371679</v>
+      </c>
+      <c r="F70">
+        <v>10.00424425595302</v>
+      </c>
+      <c r="G70">
+        <v>47.44078396640344</v>
+      </c>
+      <c r="H70">
+        <v>3.376183386062034</v>
+      </c>
+      <c r="I70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="J70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="K70">
+        <v>22.38381174369097</v>
+      </c>
+      <c r="L70">
+        <v>10.95334823499034</v>
+      </c>
+      <c r="M70">
+        <v>0.01110258388736784</v>
+      </c>
+      <c r="N70">
+        <v>0.1583846977729219</v>
+      </c>
+      <c r="O70" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70">
+        <v>0.000240800000000263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>359.9084492901451</v>
+      </c>
+      <c r="F71">
+        <v>9.92722184040673</v>
+      </c>
+      <c r="G71">
+        <v>53.14997399528626</v>
+      </c>
+      <c r="H71">
+        <v>12.72479802716465</v>
+      </c>
+      <c r="I71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="J71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="K71">
+        <v>39.07907679822265</v>
+      </c>
+      <c r="L71">
+        <v>21.21468377643264</v>
+      </c>
+      <c r="M71">
+        <v>0.01134309063817636</v>
+      </c>
+      <c r="N71">
+        <v>0.01502828922531263</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71">
+        <v>0.0002867000000037478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.9149002591698</v>
+      </c>
+      <c r="F72">
+        <v>9.989287600268792</v>
+      </c>
+      <c r="G72">
+        <v>166.8584753947301</v>
+      </c>
+      <c r="H72">
+        <v>13.46318442951069</v>
+      </c>
+      <c r="I72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="J72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="K72">
+        <v>149.9885890534732</v>
+      </c>
+      <c r="L72">
+        <v>9.654186967422682</v>
+      </c>
+      <c r="M72">
+        <v>0.01312938008668272</v>
+      </c>
+      <c r="N72">
+        <v>0.01498903600461173</v>
+      </c>
+      <c r="O72" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>0.000277000000011185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.04306031497297426</v>
+      </c>
+      <c r="F73">
+        <v>10.00514621574267</v>
+      </c>
+      <c r="G73">
+        <v>33.49167554015909</v>
+      </c>
+      <c r="H73">
+        <v>7.537750185224081</v>
+      </c>
+      <c r="I73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="J73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="K73">
+        <v>22.44813938178835</v>
+      </c>
+      <c r="L73">
+        <v>16.15650424955929</v>
+      </c>
+      <c r="M73">
+        <v>0.009908636973231242</v>
+      </c>
+      <c r="N73">
+        <v>0.05108768408740674</v>
+      </c>
+      <c r="O73" t="s">
+        <v>16</v>
+      </c>
+      <c r="P73">
+        <v>0.0002457000000219978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9681454500934</v>
+      </c>
+      <c r="F74">
+        <v>9.961824519575949</v>
+      </c>
+      <c r="G74">
+        <v>19.17110760291171</v>
+      </c>
+      <c r="H74">
+        <v>11.26236591699521</v>
+      </c>
+      <c r="I74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="J74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="K74">
+        <v>15.56834327123028</v>
+      </c>
+      <c r="L74">
+        <v>20.87674156509166</v>
+      </c>
+      <c r="M74">
+        <v>0.01015466195634728</v>
+      </c>
+      <c r="N74">
+        <v>0.0147987344773665</v>
+      </c>
+      <c r="O74" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74">
+        <v>0.0002398000000027878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.942318694869</v>
+      </c>
+      <c r="F75">
+        <v>10.07300913974501</v>
+      </c>
+      <c r="G75">
+        <v>115.6147834737443</v>
+      </c>
+      <c r="H75">
+        <v>9.583032425255753</v>
+      </c>
+      <c r="I75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="J75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="K75">
+        <v>77.83651656660949</v>
+      </c>
+      <c r="L75">
+        <v>11.79456283040235</v>
+      </c>
+      <c r="M75">
+        <v>0.009327546145420076</v>
+      </c>
+      <c r="N75">
+        <v>0.05585758812737353</v>
+      </c>
+      <c r="O75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>0.0002002999999888289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.9391654506192</v>
+      </c>
+      <c r="F76">
+        <v>9.958254926797888</v>
+      </c>
+      <c r="G76">
+        <v>36.33064397095136</v>
+      </c>
+      <c r="H76">
+        <v>12.43105286502239</v>
+      </c>
+      <c r="I76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="J76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="K76">
+        <v>27.31259826659124</v>
+      </c>
+      <c r="L76">
+        <v>21.78846350568273</v>
+      </c>
+      <c r="M76">
+        <v>0.009352431226515389</v>
+      </c>
+      <c r="N76">
+        <v>0.009114332830297162</v>
+      </c>
+      <c r="O76" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76">
+        <v>0.0002411000000108743</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>0.07095021339761047</v>
+      </c>
+      <c r="F77">
+        <v>9.981254621345549</v>
+      </c>
+      <c r="G77">
+        <v>103.2171690753648</v>
+      </c>
+      <c r="H77">
+        <v>3.740324750850471</v>
+      </c>
+      <c r="I77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="J77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="K77">
+        <v>41.21658588246575</v>
+      </c>
+      <c r="L77">
+        <v>8.426540110725147</v>
+      </c>
+      <c r="M77">
+        <v>0.01038900128891693</v>
+      </c>
+      <c r="N77">
+        <v>0.0754194301276333</v>
+      </c>
+      <c r="O77" t="s">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>0.0002237999999863405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.9059698689281</v>
+      </c>
+      <c r="F78">
+        <v>9.971058515694859</v>
+      </c>
+      <c r="G78">
+        <v>55.87281242151467</v>
+      </c>
+      <c r="H78">
+        <v>12.88040502507087</v>
+      </c>
+      <c r="I78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="J78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="K78">
+        <v>41.03553837131064</v>
+      </c>
+      <c r="L78">
+        <v>21.24646745796383</v>
+      </c>
+      <c r="M78">
+        <v>0.01013886818435066</v>
+      </c>
+      <c r="N78">
+        <v>0.01678657832668354</v>
+      </c>
+      <c r="O78" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78">
+        <v>0.000267100000002074</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>359.9775555147925</v>
+      </c>
+      <c r="F79">
+        <v>9.980599296453951</v>
+      </c>
+      <c r="G79">
+        <v>165.4160760467852</v>
+      </c>
+      <c r="H79">
+        <v>10.68305722607824</v>
+      </c>
+      <c r="I79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="J79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="K79">
+        <v>138.9273710598507</v>
+      </c>
+      <c r="L79">
+        <v>6.688596109374297</v>
+      </c>
+      <c r="M79">
+        <v>0.01019830731245207</v>
+      </c>
+      <c r="N79">
+        <v>0.01186447440604478</v>
+      </c>
+      <c r="O79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79">
+        <v>0.0002019000000075266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9877953862775</v>
+      </c>
+      <c r="F80">
+        <v>10.02171770082037</v>
+      </c>
+      <c r="G80">
+        <v>8.710142723442409</v>
+      </c>
+      <c r="H80">
+        <v>11.09994127268909</v>
+      </c>
+      <c r="I80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="J80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="K80">
+        <v>8.80209808324336</v>
+      </c>
+      <c r="L80">
+        <v>20.81683146701286</v>
+      </c>
+      <c r="M80">
+        <v>0.0100935001903484</v>
+      </c>
+      <c r="N80">
+        <v>0.02452518526663717</v>
+      </c>
+      <c r="O80" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80">
+        <v>0.0002389999999934389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>0.3316358820770021</v>
+      </c>
+      <c r="F81">
+        <v>9.723773058637125</v>
+      </c>
+      <c r="G81">
+        <v>90.52299715956831</v>
+      </c>
+      <c r="H81">
+        <v>8.088737858907665</v>
+      </c>
+      <c r="I81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="J81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="K81">
+        <v>57.30035681540677</v>
+      </c>
+      <c r="L81">
+        <v>12.99184035206943</v>
+      </c>
+      <c r="M81">
+        <v>0.01893523933701009</v>
+      </c>
+      <c r="N81">
+        <v>0.2695941354401347</v>
+      </c>
+      <c r="O81" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81">
+        <v>0.0002226999999948021</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.8100147063852</v>
+      </c>
+      <c r="F82">
+        <v>10.13117125982169</v>
+      </c>
+      <c r="G82">
+        <v>93.85266991969021</v>
+      </c>
+      <c r="H82">
+        <v>11.68724546627788</v>
+      </c>
+      <c r="I82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="J82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="K82">
+        <v>66.51985261879135</v>
+      </c>
+      <c r="L82">
+        <v>16.49573815376079</v>
+      </c>
+      <c r="M82">
+        <v>0.01206497401598328</v>
+      </c>
+      <c r="N82">
+        <v>0.1105405327349728</v>
+      </c>
+      <c r="O82" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82">
+        <v>0.0002157000000124754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.1359900342218655</v>
+      </c>
+      <c r="F83">
+        <v>9.98836007360269</v>
+      </c>
+      <c r="G83">
+        <v>64.37575803281329</v>
+      </c>
+      <c r="H83">
+        <v>6.936101603393836</v>
+      </c>
+      <c r="I83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="J83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="K83">
+        <v>38.40946308103325</v>
+      </c>
+      <c r="L83">
+        <v>14.001610330591</v>
+      </c>
+      <c r="M83">
+        <v>0.01108383762074902</v>
+      </c>
+      <c r="N83">
+        <v>0.08785751872151198</v>
+      </c>
+      <c r="O83" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83">
+        <v>0.0002439999999808151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.9159349597244</v>
+      </c>
+      <c r="F84">
+        <v>9.966784021747937</v>
+      </c>
+      <c r="G84">
+        <v>49.39142264730157</v>
+      </c>
+      <c r="H84">
+        <v>10.74531057549278</v>
+      </c>
+      <c r="I84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="J84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="K84">
+        <v>34.80758578642373</v>
+      </c>
+      <c r="L84">
+        <v>19.17392164296144</v>
+      </c>
+      <c r="M84">
+        <v>0.01115096223502417</v>
+      </c>
+      <c r="N84">
+        <v>0.02845128873208915</v>
+      </c>
+      <c r="O84" t="s">
+        <v>16</v>
+      </c>
+      <c r="P84">
+        <v>0.0002384999999947013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>359.9150687113963</v>
+      </c>
+      <c r="F85">
+        <v>9.944316614432882</v>
+      </c>
+      <c r="G85">
+        <v>46.12337908683752</v>
+      </c>
+      <c r="H85">
+        <v>11.24213076396186</v>
+      </c>
+      <c r="I85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="J85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="K85">
+        <v>33.11852069778443</v>
+      </c>
+      <c r="L85">
+        <v>19.9134490085759</v>
+      </c>
+      <c r="M85">
+        <v>0.01049517530518729</v>
+      </c>
+      <c r="N85">
+        <v>0.0157250403254415</v>
+      </c>
+      <c r="O85" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85">
+        <v>0.0001967999999976655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.01316122019755319</v>
+      </c>
+      <c r="F86">
+        <v>9.983683087061875</v>
+      </c>
+      <c r="G86">
+        <v>8.224937229430077</v>
+      </c>
+      <c r="H86">
+        <v>7.466001166408812</v>
+      </c>
+      <c r="I86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="J86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="K86">
+        <v>8.597346276947754</v>
+      </c>
+      <c r="L86">
+        <v>16.41886166255496</v>
+      </c>
+      <c r="M86">
+        <v>0.0112185632305923</v>
+      </c>
+      <c r="N86">
+        <v>0.01506855276946967</v>
+      </c>
+      <c r="O86" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86">
+        <v>0.0001950000000192631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>359.9823149278921</v>
+      </c>
+      <c r="F87">
+        <v>9.991504634672513</v>
+      </c>
+      <c r="G87">
+        <v>111.6005619630701</v>
+      </c>
+      <c r="H87">
+        <v>9.107667815038043</v>
+      </c>
+      <c r="I87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="J87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="K87">
+        <v>73.51897824731705</v>
+      </c>
+      <c r="L87">
+        <v>11.81445677955166</v>
+      </c>
+      <c r="M87">
+        <v>0.01029918875356684</v>
+      </c>
+      <c r="N87">
+        <v>0.005230957790969789</v>
+      </c>
+      <c r="O87" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87">
+        <v>0.0002312000000017633</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>0.05962857189673432</v>
+      </c>
+      <c r="F88">
+        <v>10.00494061866021</v>
+      </c>
+      <c r="G88">
+        <v>36.69865845966984</v>
+      </c>
+      <c r="H88">
+        <v>5.365228361158456</v>
+      </c>
+      <c r="I88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="J88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="K88">
+        <v>21.83341497667583</v>
+      </c>
+      <c r="L88">
+        <v>13.520555949269</v>
+      </c>
+      <c r="M88">
+        <v>0.01046881707377637</v>
+      </c>
+      <c r="N88">
+        <v>0.0809017823028098</v>
+      </c>
+      <c r="O88" t="s">
+        <v>16</v>
+      </c>
+      <c r="P88">
+        <v>0.0002402000000074622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>359.9627624479147</v>
+      </c>
+      <c r="F89">
+        <v>9.872036553329169</v>
+      </c>
+      <c r="G89">
+        <v>118.0495111531876</v>
+      </c>
+      <c r="H89">
+        <v>14.24081101610074</v>
+      </c>
+      <c r="I89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="J89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="K89">
+        <v>92.74933290045654</v>
+      </c>
+      <c r="L89">
+        <v>16.26448885070513</v>
+      </c>
+      <c r="M89">
+        <v>0.01058306268446375</v>
+      </c>
+      <c r="N89">
+        <v>0.06692579131690694</v>
+      </c>
+      <c r="O89" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89">
+        <v>0.0002329000000145243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9893115695848</v>
+      </c>
+      <c r="F90">
+        <v>10.01468158364678</v>
+      </c>
+      <c r="G90">
+        <v>116.5349211002511</v>
+      </c>
+      <c r="H90">
+        <v>9.107855631492461</v>
+      </c>
+      <c r="I90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="J90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="K90">
+        <v>77.05755676426742</v>
+      </c>
+      <c r="L90">
+        <v>11.23207612561661</v>
+      </c>
+      <c r="M90">
+        <v>0.01001383346478282</v>
+      </c>
+      <c r="N90">
+        <v>0.01223732059808798</v>
+      </c>
+      <c r="O90" t="s">
+        <v>16</v>
+      </c>
+      <c r="P90">
+        <v>0.0002340000000060627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.169373002654711</v>
+      </c>
+      <c r="F91">
+        <v>9.902278405341958</v>
+      </c>
+      <c r="G91">
+        <v>90.5183161877045</v>
+      </c>
+      <c r="H91">
+        <v>5.872923109341073</v>
+      </c>
+      <c r="I91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="J91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="K91">
+        <v>48.79030916021725</v>
+      </c>
+      <c r="L91">
+        <v>10.96225909598952</v>
+      </c>
+      <c r="M91">
+        <v>0.01220255719798771</v>
+      </c>
+      <c r="N91">
+        <v>0.1497348458406211</v>
+      </c>
+      <c r="O91" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91">
+        <v>0.0002706999999873005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>0.0224486668199389</v>
+      </c>
+      <c r="F92">
+        <v>9.9736197343189</v>
+      </c>
+      <c r="G92">
+        <v>27.45397290139061</v>
+      </c>
+      <c r="H92">
+        <v>4.847291334040992</v>
+      </c>
+      <c r="I92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="J92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="K92">
+        <v>17.11992382860642</v>
+      </c>
+      <c r="L92">
+        <v>13.09935552913682</v>
+      </c>
+      <c r="M92">
+        <v>0.01082036772996056</v>
+      </c>
+      <c r="N92">
+        <v>0.0433983454546773</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>0.0002426000000070871</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>0.06061210177347404</v>
+      </c>
+      <c r="F93">
+        <v>9.984029867891179</v>
+      </c>
+      <c r="G93">
+        <v>36.27433060837146</v>
+      </c>
+      <c r="H93">
+        <v>6.817812167983776</v>
+      </c>
+      <c r="I93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="J93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="K93">
+        <v>23.32747395622125</v>
+      </c>
+      <c r="L93">
+        <v>15.2064598982017</v>
+      </c>
+      <c r="M93">
+        <v>0.009863439280800589</v>
+      </c>
+      <c r="N93">
+        <v>0.07263947127503581</v>
+      </c>
+      <c r="O93" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93">
+        <v>0.0002489000000025499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>359.9769700758218</v>
+      </c>
+      <c r="F94">
+        <v>10.00952197786992</v>
+      </c>
+      <c r="G94">
+        <v>159.4358948286146</v>
+      </c>
+      <c r="H94">
+        <v>12.48047354263055</v>
+      </c>
+      <c r="I94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="J94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="K94">
+        <v>135.8867045028599</v>
+      </c>
+      <c r="L94">
+        <v>9.233181534803089</v>
+      </c>
+      <c r="M94">
+        <v>0.009193322740084582</v>
+      </c>
+      <c r="N94">
+        <v>0.007413500614674526</v>
+      </c>
+      <c r="O94" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94">
+        <v>0.0002221000000020013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.8369801919656</v>
+      </c>
+      <c r="F95">
+        <v>10.13906644210205</v>
+      </c>
+      <c r="G95">
+        <v>108.9812472727322</v>
+      </c>
+      <c r="H95">
+        <v>11.16803697448689</v>
+      </c>
+      <c r="I95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="J95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="K95">
+        <v>77.10114095120619</v>
+      </c>
+      <c r="L95">
+        <v>14.17216271937161</v>
+      </c>
+      <c r="M95">
+        <v>0.01088167388690269</v>
+      </c>
+      <c r="N95">
+        <v>0.1074095379667189</v>
+      </c>
+      <c r="O95" t="s">
+        <v>16</v>
+      </c>
+      <c r="P95">
+        <v>0.000223700000020699</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.9256546784487</v>
+      </c>
+      <c r="F96">
+        <v>10.08736914175631</v>
+      </c>
+      <c r="G96">
+        <v>129.3574024222543</v>
+      </c>
+      <c r="H96">
+        <v>10.4337959487208</v>
+      </c>
+      <c r="I96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="J96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="K96">
+        <v>92.4776990000606</v>
+      </c>
+      <c r="L96">
+        <v>10.8484661751019</v>
+      </c>
+      <c r="M96">
+        <v>0.01046413026308324</v>
+      </c>
+      <c r="N96">
+        <v>0.06574265135847203</v>
+      </c>
+      <c r="O96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96">
+        <v>0.0002522000000055868</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>0.06642888995524825</v>
+      </c>
+      <c r="F97">
+        <v>10.00225688781771</v>
+      </c>
+      <c r="G97">
+        <v>41.37445898444259</v>
+      </c>
+      <c r="H97">
+        <v>5.190982799319972</v>
+      </c>
+      <c r="I97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="J97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="K97">
+        <v>23.72109237536606</v>
+      </c>
+      <c r="L97">
+        <v>13.17324754695509</v>
+      </c>
+      <c r="M97">
+        <v>0.00987790946872005</v>
+      </c>
+      <c r="N97">
+        <v>0.07072201614526095</v>
+      </c>
+      <c r="O97" t="s">
+        <v>16</v>
+      </c>
+      <c r="P97">
+        <v>0.0002400000000193359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>359.9930152225234</v>
+      </c>
+      <c r="F98">
+        <v>9.960954968936541</v>
+      </c>
+      <c r="G98">
+        <v>38.60741169401403</v>
+      </c>
+      <c r="H98">
+        <v>13.84740993437922</v>
+      </c>
+      <c r="I98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="J98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="K98">
+        <v>29.57652851451931</v>
+      </c>
+      <c r="L98">
+        <v>23.375598348447</v>
+      </c>
+      <c r="M98">
+        <v>0.009804625094212416</v>
+      </c>
+      <c r="N98">
+        <v>0.02371399632264153</v>
+      </c>
+      <c r="O98" t="s">
+        <v>16</v>
+      </c>
+      <c r="P98">
+        <v>0.0002753999999924872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.1751187751292006</v>
+      </c>
+      <c r="F99">
+        <v>9.957807836742958</v>
+      </c>
+      <c r="G99">
+        <v>150.8166088592113</v>
+      </c>
+      <c r="H99">
+        <v>14.53038867085856</v>
+      </c>
+      <c r="I99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="J99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="K99">
+        <v>129.0868685856531</v>
+      </c>
+      <c r="L99">
+        <v>12.50082270462806</v>
+      </c>
+      <c r="M99">
+        <v>0.01726884857785942</v>
+      </c>
+      <c r="N99">
+        <v>0.04847632556730472</v>
+      </c>
+      <c r="O99" t="s">
+        <v>16</v>
+      </c>
+      <c r="P99">
+        <v>0.0002553000000204975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>359.9526282918734</v>
+      </c>
+      <c r="F100">
+        <v>10.03646590961175</v>
+      </c>
+      <c r="G100">
+        <v>131.7206834428379</v>
+      </c>
+      <c r="H100">
+        <v>9.869887658631443</v>
+      </c>
+      <c r="I100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="J100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="K100">
+        <v>92.64449735706687</v>
+      </c>
+      <c r="L100">
+        <v>10.01305677185878</v>
+      </c>
+      <c r="M100">
+        <v>0.01141835146419237</v>
+      </c>
+      <c r="N100">
+        <v>0.03121536666200564</v>
+      </c>
+      <c r="O100" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100">
+        <v>0.0003518000000042321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>0.0142358842701934</v>
+      </c>
+      <c r="F101">
+        <v>9.93454456432225</v>
+      </c>
+      <c r="G101">
+        <v>121.0336968565356</v>
+      </c>
+      <c r="H101">
+        <v>8.768141499578654</v>
+      </c>
+      <c r="I101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="J101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="K101">
+        <v>79.47058128117375</v>
+      </c>
+      <c r="L101">
+        <v>10.36315387776154</v>
+      </c>
+      <c r="M101">
+        <v>0.00980941165624598</v>
+      </c>
+      <c r="N101">
+        <v>0.04393678678491209</v>
+      </c>
+      <c r="O101" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101">
+        <v>0.000240100000013399</v>
       </c>
     </row>
   </sheetData>
